--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38975C6D-CB0D-4C50-998A-C4C3A182875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A86126E-F609-4DC2-847E-214A83F65295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="435" windowWidth="19665" windowHeight="15210" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="8340" yWindow="195" windowWidth="20745" windowHeight="13995" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Lenovo</t>
+  </si>
+  <si>
+    <t>2330 TT</t>
+  </si>
+  <si>
+    <t>005930 KS</t>
+  </si>
+  <si>
+    <t>Broadcom</t>
+  </si>
+  <si>
+    <t>Avago</t>
   </si>
 </sst>
 </file>
@@ -452,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -523,15 +535,34 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A86126E-F609-4DC2-847E-214A83F65295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E4CE8-F180-4DBF-819E-A4219085EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="195" windowWidth="20745" windowHeight="13995" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18810" windowHeight="13215" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
-    <sheet name="Hardware" sheetId="2" r:id="rId2"/>
+    <sheet name="Networking" sheetId="3" r:id="rId2"/>
+    <sheet name="Hardware" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -113,7 +114,34 @@
     <t>Broadcom</t>
   </si>
   <si>
-    <t>Avago</t>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Qualcomm</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>Applied Materials</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>ADI</t>
   </si>
 </sst>
 </file>
@@ -464,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,7 +590,39 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -571,10 +631,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E4CE8-F180-4DBF-819E-A4219085EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4235DB-68C4-4B82-ABF5-2132E9A1FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18810" windowHeight="13215" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="7545" yWindow="2145" windowWidth="23940" windowHeight="14925" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
     <sheet name="Networking" sheetId="3" r:id="rId2"/>
     <sheet name="Hardware" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -142,16 +145,62 @@
   </si>
   <si>
     <t>ADI</t>
+  </si>
+  <si>
+    <t>Diligent Robotics</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Q222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -173,13 +222,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -193,6 +258,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="O3">
+            <v>16070.752</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>179308</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>119691</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="BE30">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="BE31">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="BE33">
+            <v>175.12057682124131</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -672,65 +786,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="4">
+        <v>170</v>
+      </c>
+      <c r="E3" s="6">
+        <f>+D3*H3</f>
+        <v>2732027.84</v>
+      </c>
+      <c r="F3" s="6">
+        <f>+[1]Main!$O$5-[1]Main!$O$6</f>
+        <v>59617</v>
+      </c>
+      <c r="G3" s="6">
+        <f>+E3-F3</f>
+        <v>2672410.84</v>
+      </c>
+      <c r="H3" s="6">
+        <f>+[1]Main!$O$3</f>
+        <v>16070.752</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="5">
+        <v>44798</v>
+      </c>
+      <c r="K3" s="2">
+        <f>[1]Model!$BE$33</f>
+        <v>175.12057682124131</v>
+      </c>
+      <c r="L3" s="7">
+        <f>+K3/D3-1</f>
+        <v>3.0121040124948983E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <f>+[1]Model!$BE$30</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N3" s="8">
+        <f>+[1]Model!$BE$31</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4235DB-68C4-4B82-ABF5-2132E9A1FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F129C4-11B6-4B5C-A767-91966B7C959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="2145" windowWidth="23940" windowHeight="14925" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
     <sheet name="Networking" sheetId="3" r:id="rId2"/>
-    <sheet name="Hardware" sheetId="2" r:id="rId3"/>
+    <sheet name="Electronics-Computers" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,57 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Longi Green</t>
+  </si>
+  <si>
+    <t>601012 CH</t>
+  </si>
+  <si>
+    <t>Lam Research</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>Midea Group</t>
+  </si>
+  <si>
+    <t>000333 CH</t>
+  </si>
+  <si>
+    <t>SK Hynix</t>
+  </si>
+  <si>
+    <t>000660 KS</t>
+  </si>
+  <si>
+    <t>Tokyo Electron</t>
+  </si>
+  <si>
+    <t>8035 JP</t>
+  </si>
+  <si>
+    <t>KLA Corp</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>Hon Hai</t>
+  </si>
+  <si>
+    <t>2317 TT</t>
+  </si>
+  <si>
+    <t>Shin-Etsu Chemical</t>
+  </si>
+  <si>
+    <t>4063 JP</t>
   </si>
 </sst>
 </file>
@@ -606,22 +657,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +686,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -643,100 +697,202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -746,18 +902,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +930,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -786,22 +948,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="B2:O9"/>
+  <dimension ref="A2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +1009,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,33 +1064,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F129C4-11B6-4B5C-A767-91966B7C959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41135EBD-2EB9-4F1C-B059-0D19028D0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53235" yWindow="1740" windowWidth="20310" windowHeight="17790" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="63165" yWindow="3810" windowWidth="22650" windowHeight="14580" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>4063 JP</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Razer</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>6501 JP</t>
+  </si>
+  <si>
+    <t>Hangzhou Hikvision</t>
+  </si>
+  <si>
+    <t>002415 CH</t>
   </si>
 </sst>
 </file>
@@ -241,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -252,6 +273,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -277,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -293,6 +322,8 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -659,11 +690,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,13 +979,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,27 +1129,70 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41135EBD-2EB9-4F1C-B059-0D19028D0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5552A7-9240-4CC3-A177-F2D87421E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63165" yWindow="3810" windowWidth="22650" windowHeight="14580" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="22155" windowHeight="13350" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -253,6 +253,57 @@
   </si>
   <si>
     <t>002415 CH</t>
+  </si>
+  <si>
+    <t>NXP Semiconductor</t>
+  </si>
+  <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>JNPR</t>
+  </si>
+  <si>
+    <t>1810 HK</t>
+  </si>
+  <si>
+    <t>Motorola</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>2454 TT</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>Hoya</t>
+  </si>
+  <si>
+    <t>7741 JP</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>DELL</t>
   </si>
 </sst>
 </file>
@@ -688,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -926,6 +977,50 @@
         <v>63</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -933,13 +1028,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -970,6 +1065,39 @@
       </c>
       <c r="C3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1113,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,18 +1279,36 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5552A7-9240-4CC3-A177-F2D87421E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF748C3-BBED-4A72-B373-E4F7D5245202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="22155" windowHeight="13350" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="55770" yWindow="2655" windowWidth="24495" windowHeight="14835" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +304,69 @@
   </si>
   <si>
     <t>DELL</t>
+  </si>
+  <si>
+    <t>Arista</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>IFX GR</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>7751 JP</t>
+  </si>
+  <si>
+    <t>STMicro</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>Foxconn</t>
+  </si>
+  <si>
+    <t>601138 CH</t>
+  </si>
+  <si>
+    <t>FujiFilm</t>
+  </si>
+  <si>
+    <t>4901 JP</t>
+  </si>
+  <si>
+    <t>TCL Zhonghuan</t>
+  </si>
+  <si>
+    <t>002129 CH</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>6702 JP</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>NOKIA FH</t>
+  </si>
+  <si>
+    <t>GlobalFoundries</t>
+  </si>
+  <si>
+    <t>GFS</t>
+  </si>
+  <si>
+    <t>Pasqal</t>
   </si>
 </sst>
 </file>
@@ -357,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -374,7 +437,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,13 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,6 +1083,60 @@
         <v>85</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1028,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1216,28 @@
         <v>74</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1107,13 +1245,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A2:O25"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1312,33 +1450,77 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E28" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
     </row>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF748C3-BBED-4A72-B373-E4F7D5245202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6432FE2-8F13-4C90-8AEB-F951AE365018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55770" yWindow="2655" windowWidth="24495" windowHeight="14835" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -367,6 +367,27 @@
   </si>
   <si>
     <t>Pasqal</t>
+  </si>
+  <si>
+    <t>Cerebras</t>
+  </si>
+  <si>
+    <t>On Semiconductor</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>981 HK</t>
+  </si>
+  <si>
+    <t>Ericsson</t>
+  </si>
+  <si>
+    <t>ERICB SS</t>
   </si>
 </sst>
 </file>
@@ -801,13 +822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:E37"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1148,28 @@
         <v>107</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>64</v>
@@ -1135,6 +1178,11 @@
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1144,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1284,17 @@
       </c>
       <c r="C8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6432FE2-8F13-4C90-8AEB-F951AE365018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E800F61-F6A7-435F-8A72-440E6301D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="1425" windowWidth="27315" windowHeight="18315" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-31350" yWindow="2250" windowWidth="30135" windowHeight="17865" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -388,6 +389,15 @@
   </si>
   <si>
     <t>ERICB SS</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Founded</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,6 +468,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,6 +533,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2460</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13143</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>10950</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -822,47 +866,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="4">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <f>+D3*H3</f>
+        <v>384252</v>
+      </c>
+      <c r="F3" s="6">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>2193</v>
+      </c>
+      <c r="G3" s="6">
+        <f>+E3-F3</f>
+        <v>382059</v>
+      </c>
+      <c r="H3" s="6">
+        <f>+[2]Main!$K$3</f>
+        <v>2460</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="10">
+        <v>44937</v>
+      </c>
+      <c r="K3">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -873,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -884,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -895,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -906,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -917,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -928,7 +1020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -939,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -950,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -961,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -972,7 +1064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -983,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -994,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1186,6 +1278,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1194,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1310,7 +1405,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E800F61-F6A7-435F-8A72-440E6301D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30374C9C-0706-4232-93AB-B21B87DD1EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31350" yWindow="2250" windowWidth="30135" windowHeight="17865" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-34185" yWindow="2940" windowWidth="27705" windowHeight="17655" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -403,7 +404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -477,7 +478,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6DCA3146-CED7-46CE-A0BC-0D6A48096DA0}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -490,7 +493,38 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2460</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13143</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>10950</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -538,9 +572,12 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -549,17 +586,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>2460</v>
+            <v>907.57171200000005</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>13143</v>
+            <v>9090</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>10950</v>
+            <v>7937</v>
           </cell>
         </row>
       </sheetData>
@@ -858,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -872,7 +909,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -933,7 +970,7 @@
         <v>384252</v>
       </c>
       <c r="F3" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>2193</v>
       </c>
       <c r="G3" s="6">
@@ -941,7 +978,7 @@
         <v>382059</v>
       </c>
       <c r="H3" s="6">
-        <f>+[2]Main!$K$3</f>
+        <f>+[1]Main!$K$3</f>
         <v>2460</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1046,11 +1083,36 @@
       <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>170.34</v>
+      </c>
+      <c r="E12" s="6">
+        <f>+D12*H12</f>
+        <v>154595.76542208</v>
+      </c>
+      <c r="F12" s="6">
+        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>1153</v>
+      </c>
+      <c r="G12" s="6">
+        <f>+E12-F12</f>
+        <v>153442.76542208</v>
+      </c>
+      <c r="H12" s="6">
+        <f>+[3]Main!$K$3</f>
+        <v>907.57171200000005</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="10">
+        <v>44946</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1280,6 +1342,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,7 +1541,7 @@
         <v>2732027.84</v>
       </c>
       <c r="F3" s="6">
-        <f>+[1]Main!$O$5-[1]Main!$O$6</f>
+        <f>+[2]Main!$O$5-[2]Main!$O$6</f>
         <v>59617</v>
       </c>
       <c r="G3" s="6">
@@ -1486,7 +1549,7 @@
         <v>2672410.84</v>
       </c>
       <c r="H3" s="6">
-        <f>+[1]Main!$O$3</f>
+        <f>+[2]Main!$O$3</f>
         <v>16070.752</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1496,7 +1559,7 @@
         <v>44798</v>
       </c>
       <c r="K3" s="2">
-        <f>[1]Model!$BE$33</f>
+        <f>[2]Model!$BE$33</f>
         <v>175.12057682124131</v>
       </c>
       <c r="L3" s="7">
@@ -1504,11 +1567,11 @@
         <v>3.0121040124948983E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[1]Model!$BE$30</f>
+        <f>+[2]Model!$BE$30</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[1]Model!$BE$31</f>
+        <f>+[2]Model!$BE$31</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30374C9C-0706-4232-93AB-B21B87DD1EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE8EC7-C080-4166-AEDF-1B7E25FEE451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34185" yWindow="2940" windowWidth="27705" windowHeight="17655" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-48480" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,6 +471,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,6 +532,40 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>907.57171200000005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>9090</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7937</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -567,40 +607,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>907.57171200000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>9090</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>7937</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -905,11 +911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -917,7 +923,8 @@
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="3"/>
+    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1097,7 +1104,7 @@
         <v>154595.76542208</v>
       </c>
       <c r="F12" s="6">
-        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>1153</v>
       </c>
       <c r="G12" s="6">
@@ -1105,7 +1112,7 @@
         <v>153442.76542208</v>
       </c>
       <c r="H12" s="6">
-        <f>+[3]Main!$K$3</f>
+        <f>+[2]Main!$K$3</f>
         <v>907.57171200000005</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1350,35 +1357,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1388,8 +1414,14 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="11">
+        <v>48.51</v>
+      </c>
+      <c r="E3" s="12">
+        <v>199280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1400,7 +1432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1433,7 +1465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1444,7 +1476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1541,7 +1573,7 @@
         <v>2732027.84</v>
       </c>
       <c r="F3" s="6">
-        <f>+[2]Main!$O$5-[2]Main!$O$6</f>
+        <f>+[3]Main!$O$5-[3]Main!$O$6</f>
         <v>59617</v>
       </c>
       <c r="G3" s="6">
@@ -1549,7 +1581,7 @@
         <v>2672410.84</v>
       </c>
       <c r="H3" s="6">
-        <f>+[2]Main!$O$3</f>
+        <f>+[3]Main!$O$3</f>
         <v>16070.752</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1559,7 +1591,7 @@
         <v>44798</v>
       </c>
       <c r="K3" s="2">
-        <f>[2]Model!$BE$33</f>
+        <f>[3]Model!$BE$33</f>
         <v>175.12057682124131</v>
       </c>
       <c r="L3" s="7">
@@ -1567,11 +1599,11 @@
         <v>3.0121040124948983E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[2]Model!$BE$30</f>
+        <f>+[3]Model!$BE$30</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[2]Model!$BE$31</f>
+        <f>+[3]Model!$BE$31</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE8EC7-C080-4166-AEDF-1B7E25FEE451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19109F9D-0105-4C14-A693-6AC5E2AEDED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48480" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="2655" yWindow="1920" windowWidth="29250" windowHeight="18735" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -399,6 +401,12 @@
   </si>
   <si>
     <t>Founded</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -501,6 +509,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -607,6 +618,74 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>4137</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>34250</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>42051</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1618</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>5855</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>2467</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -915,7 +994,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,58 +1147,111 @@
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>170.34</v>
+      </c>
+      <c r="E10" s="6">
+        <f>+D10*H10</f>
+        <v>154595.76542208</v>
+      </c>
+      <c r="F10" s="6">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>1153</v>
+      </c>
+      <c r="G10" s="6">
+        <f>+E10-F10</f>
+        <v>153442.76542208</v>
+      </c>
+      <c r="H10" s="6">
+        <f>+[2]Main!$K$3</f>
+        <v>907.57171200000005</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="10">
+        <v>44946</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="4">
+        <v>81</v>
+      </c>
+      <c r="E11" s="6">
+        <f>+D11*H11</f>
+        <v>131058</v>
+      </c>
+      <c r="F11" s="6">
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <v>3388</v>
+      </c>
+      <c r="G11" s="6">
+        <f>+E11-F11</f>
+        <v>127670</v>
+      </c>
+      <c r="H11" s="6">
+        <f>+[5]Main!$M$3</f>
+        <v>1618</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="10">
+        <v>44958</v>
+      </c>
+      <c r="K11">
+        <v>1969</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>170.34</v>
+        <v>27.88</v>
       </c>
       <c r="E12" s="6">
         <f>+D12*H12</f>
-        <v>154595.76542208</v>
+        <v>115339.56</v>
       </c>
       <c r="F12" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>1153</v>
+        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
+        <v>-7801</v>
       </c>
       <c r="G12" s="6">
         <f>+E12-F12</f>
-        <v>153442.76542208</v>
+        <v>123140.56</v>
       </c>
       <c r="H12" s="6">
-        <f>+[2]Main!$K$3</f>
-        <v>907.57171200000005</v>
+        <f>+[4]Main!$L$3</f>
+        <v>4137</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J12" s="10">
-        <v>44946</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1349,7 +1481,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{ACBF0F19-D83E-41D4-B3AD-01439A0CCE2D}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19109F9D-0105-4C14-A693-6AC5E2AEDED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB0484-E0AC-4D62-A449-C2BE17A26A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1920" windowWidth="29250" windowHeight="18735" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>ROIC</t>
-  </si>
-  <si>
-    <t>Q222</t>
   </si>
   <si>
     <t>x</t>
@@ -577,47 +574,32 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>16070.752</v>
+          <cell r="M3">
+            <v>1618</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>179308</v>
+          <cell r="M5">
+            <v>5855</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>119691</v>
+          <cell r="M6">
+            <v>2467</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="30">
-          <cell r="BE30">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="BE31">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="BE33">
-            <v>175.12057682124131</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -651,7 +633,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -666,26 +648,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1618</v>
+          <cell r="O3">
+            <v>16070.752</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5855</v>
+          <cell r="O5">
+            <v>179308</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>2467</v>
+          <cell r="O6">
+            <v>119691</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="BU30">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="BU31">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="BU33">
+            <v>176.50796544189615</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -980,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -990,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1026,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>39</v>
@@ -1035,12 +1035,12 @@
         <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1068,7 +1068,7 @@
         <v>2460</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="10">
         <v>44937</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1173,7 +1173,7 @@
         <v>907.57171200000005</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="10">
         <v>44946</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         <v>131058</v>
       </c>
       <c r="F11" s="6">
-        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
         <v>3388</v>
       </c>
       <c r="G11" s="6">
@@ -1205,11 +1205,11 @@
         <v>127670</v>
       </c>
       <c r="H11" s="6">
-        <f>+[5]Main!$M$3</f>
+        <f>+[3]Main!$M$3</f>
         <v>1618</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="10">
         <v>44958</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>4137</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="10">
         <v>44958</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1278,18 +1278,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1300,182 +1300,182 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1493,11 +1493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1526,7 +1526,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -1535,14 +1535,14 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
@@ -1557,84 +1557,87 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EE41E817-AF60-42C7-BDB7-7DF881DC6140}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A2:O29"/>
+  <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1642,10 +1645,15 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1688,10 +1696,13 @@
       <c r="O2" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1700,53 +1711,56 @@
         <v>17</v>
       </c>
       <c r="D3" s="4">
-        <v>170</v>
+        <v>154.5</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2732027.84</v>
+        <v>2482931.1839999999</v>
       </c>
       <c r="F3" s="6">
-        <f>+[3]Main!$O$5-[3]Main!$O$6</f>
+        <f>+[5]Main!$O$5-[5]Main!$O$6</f>
         <v>59617</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2672410.84</v>
+        <v>2423314.1839999999</v>
       </c>
       <c r="H3" s="6">
-        <f>+[3]Main!$O$3</f>
+        <f>+[5]Main!$O$3</f>
         <v>16070.752</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="J3" s="5">
-        <v>44798</v>
+        <v>44961</v>
       </c>
       <c r="K3" s="2">
-        <f>[3]Model!$BE$33</f>
-        <v>175.12057682124131</v>
+        <f>[5]Model!$BU$33</f>
+        <v>176.50796544189615</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>3.0121040124948983E-2</v>
+        <v>0.14244637826470008</v>
       </c>
       <c r="M3" s="8">
-        <f>+[3]Model!$BE$30</f>
+        <f>+[5]Model!$BU$30</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[3]Model!$BE$31</f>
+        <f>+[5]Model!$BU$31</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1755,140 +1769,140 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
@@ -1896,7 +1910,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3">
         <v>150</v>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB0484-E0AC-4D62-A449-C2BE17A26A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6126B4A3-CD7E-4F5A-BF64-9B1BBEE529BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -994,7 +994,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1497,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1637,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6126B4A3-CD7E-4F5A-BF64-9B1BBEE529BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4DB3FA-97E0-4C00-9E42-8FA06EDB8C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -990,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,11 +1049,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>156.19999999999999</v>
+        <v>266.69</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>384252</v>
+        <v>656057.4</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>382059</v>
+        <v>653864.4</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4DB3FA-97E0-4C00-9E42-8FA06EDB8C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AE2A3-72A5-453A-A6C5-5146431BA58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="22335" yWindow="3135" windowWidth="28005" windowHeight="15345" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1633,11 +1633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,11 +1711,11 @@
         <v>17</v>
       </c>
       <c r="D3" s="4">
-        <v>154.5</v>
+        <v>165.02</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2482931.1839999999</v>
+        <v>2651995.4950400004</v>
       </c>
       <c r="F3" s="6">
         <f>+[5]Main!$O$5-[5]Main!$O$6</f>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2423314.1839999999</v>
+        <v>2592378.4950400004</v>
       </c>
       <c r="H3" s="6">
         <f>+[5]Main!$O$3</f>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>0.14244637826470008</v>
+        <v>6.9615594727282293E-2</v>
       </c>
       <c r="M3" s="8">
         <f>+[5]Model!$BU$30</f>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AE2A3-72A5-453A-A6C5-5146431BA58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB70BC-CCE1-409C-81F1-E286A1482979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22335" yWindow="3135" windowWidth="28005" windowHeight="15345" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="8655" yWindow="5085" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -685,7 +685,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -990,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1190,11 +1190,11 @@
         <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E11" s="6">
         <f>+D11*H11</f>
-        <v>131058</v>
+        <v>145620</v>
       </c>
       <c r="F11" s="6">
         <f>+[3]Main!$M$5-[3]Main!$M$6</f>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G11" s="6">
         <f>+E11-F11</f>
-        <v>127670</v>
+        <v>142232</v>
       </c>
       <c r="H11" s="6">
         <f>+[3]Main!$M$3</f>
@@ -1212,7 +1212,7 @@
         <v>119</v>
       </c>
       <c r="J11" s="10">
-        <v>44958</v>
+        <v>45048</v>
       </c>
       <c r="K11">
         <v>1969</v>
@@ -1633,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB70BC-CCE1-409C-81F1-E286A1482979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2851225-C5D0-4952-AC84-2052831E71FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="5085" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -654,38 +657,38 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="O3">
-            <v>16070.752</v>
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
           <cell r="O5">
-            <v>179308</v>
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
           <cell r="O6">
-            <v>119691</v>
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="30">
-          <cell r="BU30">
+        <row r="36">
+          <cell r="BU36">
             <v>7.4999999999999997E-2</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="BU31">
+        <row r="37">
+          <cell r="BU37">
             <v>-0.01</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="BU33">
-            <v>176.50796544189615</v>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -990,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1633,11 +1636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1715,40 +1718,40 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2651995.4950400004</v>
+        <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
         <f>+[5]Main!$O$5-[5]Main!$O$6</f>
-        <v>59617</v>
+        <v>56718</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2592378.4950400004</v>
+        <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
         <f>+[5]Main!$O$3</f>
-        <v>16070.752</v>
+        <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J3" s="5">
-        <v>44961</v>
+        <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[5]Model!$BU$33</f>
-        <v>176.50796544189615</v>
+        <f>[5]Model!$BU$39</f>
+        <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>6.9615594727282293E-2</v>
+        <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[5]Model!$BU$30</f>
+        <f>+[5]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[5]Model!$BU$31</f>
+        <f>+[5]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2851225-C5D0-4952-AC84-2052831E71FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CA3F07-A7FF-4E72-9D3F-096F7113D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="20055" yWindow="1860" windowWidth="29115" windowHeight="17205" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -993,11 +993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1500,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1636,11 +1636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CA3F07-A7FF-4E72-9D3F-096F7113D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC4282-9408-5746-B604-C976198A5EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20055" yWindow="1860" windowWidth="29115" windowHeight="17205" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-40100" yWindow="-20900" windowWidth="18440" windowHeight="19160" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>Q123</t>
+  </si>
+  <si>
+    <t>ARM Holdings</t>
+  </si>
+  <si>
+    <t>ARM</t>
   </si>
 </sst>
 </file>
@@ -695,9 +701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -841,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -983,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,25 +997,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1268,216 +1274,227 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>109</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1503,13 +1520,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1558,7 +1575,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1569,7 +1586,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1602,7 +1619,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1630,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1643,20 +1660,20 @@
       <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="3"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="3"/>
+    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1761,7 +1778,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1772,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1827,7 +1844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1838,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1860,7 +1877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1893,17 +1910,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -1911,7 +1928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -1919,7 +1936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>35</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC4282-9408-5746-B604-C976198A5EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD62E2-AE11-496B-B42C-FBC320359E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40100" yWindow="-20900" windowWidth="18440" windowHeight="19160" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -1003,19 +1003,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="9" width="9.1640625" style="3"/>
-    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1483,17 +1483,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>108</v>
       </c>
@@ -1520,13 +1520,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1660,20 +1660,20 @@
       <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="3"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3"/>
-    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +1910,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD62E2-AE11-496B-B42C-FBC320359E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFCB6B-F049-4088-BE2C-DFB377DB6CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-26775" yWindow="2010" windowWidth="23250" windowHeight="18870" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Founded</t>
   </si>
   <si>
-    <t>Q422</t>
-  </si>
-  <si>
     <t>Q421</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>ARM</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -623,26 +623,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>4137</v>
+            <v>4267</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>34250</v>
+            <v>35097</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>42051</v>
+            <v>53029</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1003,7 +1005,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,11 +1201,11 @@
         <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E11" s="6">
         <f>+D11*H11</f>
-        <v>145620</v>
+        <v>210340</v>
       </c>
       <c r="F11" s="6">
         <f>+[3]Main!$M$5-[3]Main!$M$6</f>
@@ -1211,17 +1213,17 @@
       </c>
       <c r="G11" s="6">
         <f>+E11-F11</f>
-        <v>142232</v>
+        <v>206952</v>
       </c>
       <c r="H11" s="6">
         <f>+[3]Main!$M$3</f>
         <v>1618</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="10">
-        <v>45048</v>
+        <v>45507</v>
       </c>
       <c r="K11">
         <v>1969</v>
@@ -1237,30 +1239,30 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>27.88</v>
+      <c r="D12" s="4">
+        <v>21</v>
       </c>
       <c r="E12" s="6">
         <f>+D12*H12</f>
-        <v>115339.56</v>
+        <v>89607</v>
       </c>
       <c r="F12" s="6">
         <f>+[4]Main!$L$5-[4]Main!$L$6</f>
-        <v>-7801</v>
+        <v>-17932</v>
       </c>
       <c r="G12" s="6">
         <f>+E12-F12</f>
-        <v>123140.56</v>
+        <v>107539</v>
       </c>
       <c r="H12" s="6">
         <f>+[4]Main!$L$3</f>
-        <v>4137</v>
+        <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J12" s="10">
-        <v>44958</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1279,10 +1281,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1750,7 +1752,7 @@
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="5">
         <v>45050</v>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFCB6B-F049-4088-BE2C-DFB377DB6CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D2C71D-D173-4EF0-B1BE-5F12CE3B0CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26775" yWindow="2010" windowWidth="23250" windowHeight="18870" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
     <sheet name="Networking" sheetId="3" r:id="rId2"/>
     <sheet name="Electronics-Computers" sheetId="2" r:id="rId3"/>
+    <sheet name="FX" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -413,6 +416,12 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>NTD/TWD</t>
   </si>
 </sst>
 </file>
@@ -521,26 +530,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Quarterly Earnings Preview"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>2460</v>
+            <v>24600</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>13143</v>
+            <v>31438</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>10950</v>
+            <v>9710</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -608,7 +619,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -643,8 +654,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -697,6 +708,74 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="J4">
+            <v>25931</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>67370</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>30421</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>4800</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>11864</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>73468</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1005,7 +1084,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1092,11 @@
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
     <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1060,29 +1143,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>266.69</v>
+        <v>120</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>656057.4</v>
+        <v>2952000</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>2193</v>
+        <v>21728</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>653864.4</v>
+        <v>2930272</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
-        <v>2460</v>
+        <v>24600</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J3" s="10">
-        <v>44937</v>
+        <v>45532</v>
       </c>
       <c r="K3">
         <v>1993</v>
@@ -1092,23 +1175,73 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="4">
+        <v>169</v>
+      </c>
+      <c r="E4" s="6">
+        <f>+D4*H4/5</f>
+        <v>876467.8</v>
+      </c>
+      <c r="F4" s="6">
+        <f>+[6]Main!$J$7-[6]Main!$J$8</f>
+        <v>36949</v>
+      </c>
+      <c r="G4" s="6">
+        <f>+E4-F4</f>
+        <v>839518.8</v>
+      </c>
+      <c r="H4" s="6">
+        <f>+[6]Main!$J$4</f>
+        <v>25931</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="10">
+        <v>45532</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
+      <c r="D5" s="4">
+        <v>964</v>
+      </c>
+      <c r="E5" s="6">
+        <f>+D5*H5/FX!C2</f>
+        <v>781904.41038473567</v>
+      </c>
+      <c r="F5" s="6">
+        <f>+[6]Main!$J$7-[6]Main!$J$8</f>
+        <v>36949</v>
+      </c>
+      <c r="G5" s="6">
+        <f>+E5-F5</f>
+        <v>744955.41038473567</v>
+      </c>
+      <c r="H5" s="6">
+        <f>+[6]Main!$J$4</f>
+        <v>25931</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="10">
+        <v>45532</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1125,12 +1258,34 @@
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="4">
+        <v>154</v>
+      </c>
+      <c r="E7" s="6">
+        <f>+D7*H7</f>
+        <v>739200</v>
+      </c>
+      <c r="F7" s="6">
+        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <v>-61604</v>
+      </c>
+      <c r="G7" s="6">
+        <f>+E7-F7</f>
+        <v>800804</v>
+      </c>
+      <c r="H7" s="6">
+        <f>+[7]Main!$J$3</f>
+        <v>4800</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1159,74 +1314,74 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>170.34</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>130</v>
       </c>
       <c r="E10" s="6">
         <f>+D10*H10</f>
+        <v>210340</v>
+      </c>
+      <c r="F10" s="6">
+        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
+        <v>3388</v>
+      </c>
+      <c r="G10" s="6">
+        <f>+E10-F10</f>
+        <v>206952</v>
+      </c>
+      <c r="H10" s="6">
+        <f>+[3]Main!$M$3</f>
+        <v>1618</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="10">
+        <v>45507</v>
+      </c>
+      <c r="K10">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>170.34</v>
+      </c>
+      <c r="E11" s="6">
+        <f>+D11*H11</f>
         <v>154595.76542208</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>1153</v>
       </c>
-      <c r="G10" s="6">
-        <f>+E10-F10</f>
+      <c r="G11" s="6">
+        <f>+E11-F11</f>
         <v>153442.76542208</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <f>+[2]Main!$K$3</f>
         <v>907.57171200000005</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J11" s="10">
         <v>44946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6">
-        <f>+D11*H11</f>
-        <v>210340</v>
-      </c>
-      <c r="F11" s="6">
-        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
-        <v>3388</v>
-      </c>
-      <c r="G11" s="6">
-        <f>+E11-F11</f>
-        <v>206952</v>
-      </c>
-      <c r="H11" s="6">
-        <f>+[3]Main!$M$3</f>
-        <v>1618</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="10">
-        <v>45507</v>
-      </c>
-      <c r="K11">
-        <v>1969</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1503,9 +1658,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
     <hyperlink ref="B12" r:id="rId3" xr:uid="{ACBF0F19-D83E-41D4-B3AD-01439A0CCE2D}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{D5C26AF1-ADC4-4E03-9D8B-12F3C24C324B}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1949,4 +2107,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72FDEE-60E0-4B9B-AACF-AB184FD947A1}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>31.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D2C71D-D173-4EF0-B1BE-5F12CE3B0CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48654B63-72A2-49F3-9929-3EB0658FE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-35220" yWindow="1860" windowWidth="33195" windowHeight="17940" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -422,6 +424,30 @@
   </si>
   <si>
     <t>NTD/TWD</t>
+  </si>
+  <si>
+    <t>IonQ</t>
+  </si>
+  <si>
+    <t>Rigetti</t>
+  </si>
+  <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>QBTS</t>
+  </si>
+  <si>
+    <t>D-Wave</t>
+  </si>
+  <si>
+    <t>RGTI</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
@@ -550,8 +576,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -569,19 +595,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>907.57171200000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>9090</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>7937</v>
+        <row r="4">
+          <cell r="J4">
+            <v>25931</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>67370</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>30421</v>
           </cell>
         </row>
       </sheetData>
@@ -604,18 +630,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1618</v>
+          <cell r="J3">
+            <v>4800</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5855</v>
+          <cell r="J5">
+            <v>11864</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>2467</v>
+          <cell r="J6">
+            <v>73468</v>
           </cell>
         </row>
       </sheetData>
@@ -634,6 +660,74 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1618</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>5855</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>2467</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>907.57171200000005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>9090</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>7937</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
@@ -661,7 +755,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -713,41 +807,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="J4">
-            <v>25931</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>67370</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>30421</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -761,21 +821,53 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>4800</v>
+            <v>206.61099999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>11864</v>
+            <v>455.93000000000006</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>73468</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>191.243492</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>100.476</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>16.405999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1080,11 +1172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1281,7 @@
         <v>876467.8</v>
       </c>
       <c r="F4" s="6">
-        <f>+[6]Main!$J$7-[6]Main!$J$8</f>
+        <f>+[2]Main!$J$7-[2]Main!$J$8</f>
         <v>36949</v>
       </c>
       <c r="G4" s="6">
@@ -1197,7 +1289,7 @@
         <v>839518.8</v>
       </c>
       <c r="H4" s="6">
-        <f>+[6]Main!$J$4</f>
+        <f>+[2]Main!$J$4</f>
         <v>25931</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1225,7 +1317,7 @@
         <v>781904.41038473567</v>
       </c>
       <c r="F5" s="6">
-        <f>+[6]Main!$J$7-[6]Main!$J$8</f>
+        <f>+[2]Main!$J$7-[2]Main!$J$8</f>
         <v>36949</v>
       </c>
       <c r="G5" s="6">
@@ -1233,7 +1325,7 @@
         <v>744955.41038473567</v>
       </c>
       <c r="H5" s="6">
-        <f>+[6]Main!$J$4</f>
+        <f>+[2]Main!$J$4</f>
         <v>25931</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1272,7 +1364,7 @@
         <v>739200</v>
       </c>
       <c r="F7" s="6">
-        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>-61604</v>
       </c>
       <c r="G7" s="6">
@@ -1280,7 +1372,7 @@
         <v>800804</v>
       </c>
       <c r="H7" s="6">
-        <f>+[7]Main!$J$3</f>
+        <f>+[3]Main!$J$3</f>
         <v>4800</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1327,7 +1419,7 @@
         <v>210340</v>
       </c>
       <c r="F10" s="6">
-        <f>+[3]Main!$M$5-[3]Main!$M$6</f>
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>3388</v>
       </c>
       <c r="G10" s="6">
@@ -1335,7 +1427,7 @@
         <v>206952</v>
       </c>
       <c r="H10" s="6">
-        <f>+[3]Main!$M$3</f>
+        <f>+[4]Main!$M$3</f>
         <v>1618</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1366,7 +1458,7 @@
         <v>154595.76542208</v>
       </c>
       <c r="F11" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>1153</v>
       </c>
       <c r="G11" s="6">
@@ -1374,7 +1466,7 @@
         <v>153442.76542208</v>
       </c>
       <c r="H11" s="6">
-        <f>+[2]Main!$K$3</f>
+        <f>+[5]Main!$K$3</f>
         <v>907.57171200000005</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1402,7 +1494,7 @@
         <v>89607</v>
       </c>
       <c r="F12" s="6">
-        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-17932</v>
       </c>
       <c r="G12" s="6">
@@ -1410,7 +1502,7 @@
         <v>107539</v>
       </c>
       <c r="H12" s="6">
-        <f>+[4]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1813,24 +1905,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3"/>
     <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1898,7 +1991,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[5]Main!$O$5-[5]Main!$O$6</f>
+        <f>+[7]Main!$O$5-[7]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -1906,7 +1999,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[5]Main!$O$3</f>
+        <f>+[7]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1916,7 +2009,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[5]Model!$BU$39</f>
+        <f>[7]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -1924,11 +2017,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[5]Model!$BU$36</f>
+        <f>+[7]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[5]Model!$BU$37</f>
+        <f>+[7]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2075,12 +2168,94 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <f>+D17*H17</f>
+        <v>1446.277</v>
+      </c>
+      <c r="F17" s="6">
+        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
+        <v>455.93000000000006</v>
+      </c>
+      <c r="G17" s="6">
+        <f>+E17-F17</f>
+        <v>990.34699999999998</v>
+      </c>
+      <c r="H17" s="6">
+        <f>+[8]Main!$J$3</f>
+        <v>206.61099999999999</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="E18" s="6">
+        <f>+D18*H18</f>
+        <v>166.38183803999999</v>
+      </c>
+      <c r="F18" s="6">
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>84.07</v>
+      </c>
+      <c r="G18" s="6">
+        <f>+E18-F18</f>
+        <v>82.311838039999998</v>
+      </c>
+      <c r="H18" s="6">
+        <f>+[9]Main!$L$3</f>
+        <v>191.243492</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -2096,7 +2271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2104,6 +2279,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48654B63-72A2-49F3-9929-3EB0658FE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508B0D5-A7D3-4B72-8AE4-BC0B35B7E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35220" yWindow="1860" windowWidth="33195" windowHeight="17940" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-48555" yWindow="3630" windowWidth="28770" windowHeight="15450" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Jabil</t>
+  </si>
+  <si>
+    <t>JBL</t>
   </si>
 </sst>
 </file>
@@ -1903,18 +1912,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A2:P29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
@@ -1926,6 +1935,11 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
@@ -2248,6 +2262,17 @@
       </c>
       <c r="C20" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3">
+        <v>101.64</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -2280,6 +2305,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508B0D5-A7D3-4B72-8AE4-BC0B35B7E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D165AA8-9655-438E-B484-008D5475777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48555" yWindow="3630" windowWidth="28770" windowHeight="15450" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-31875" yWindow="1485" windowWidth="30405" windowHeight="18060" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -587,6 +588,40 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>1108.841326</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>9154</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>13258</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1181,11 +1216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1565,18 +1600,43 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="3">
+        <v>89.54</v>
+      </c>
+      <c r="E17" s="6">
+        <f>+D17*H17</f>
+        <v>99285.65233004</v>
+      </c>
+      <c r="F17" s="6">
+        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
+        <v>-4104</v>
+      </c>
+      <c r="G17" s="6">
+        <f>+E17-F17</f>
+        <v>103389.65233004</v>
+      </c>
+      <c r="H17" s="6">
+        <f>+[10]Main!$J$3</f>
+        <v>1108.841326</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="10">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1598,7 +1658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1609,7 +1669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1631,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1724,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1686,7 +1746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1697,7 +1757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1719,7 +1779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +1790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1765,6 +1825,7 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{D5C26AF1-ADC4-4E03-9D8B-12F3C24C324B}"/>
     <hyperlink ref="B5" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1914,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D165AA8-9655-438E-B484-008D5475777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550E02F-A0EF-46D6-A264-9CA7D9DF3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31875" yWindow="1485" windowWidth="30405" windowHeight="18060" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-44430" yWindow="1170" windowWidth="23715" windowHeight="19635" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -601,27 +601,25 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>1108.841326</v>
+          <cell r="L3">
+            <v>191.243492</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>9154</v>
+          <cell r="L5">
+            <v>100.476</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>13258</v>
+          <cell r="L6">
+            <v>16.405999999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -808,44 +806,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="J3">
+            <v>1108.841326</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="J5">
+            <v>9154</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="J6">
+            <v>13258</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -860,26 +840,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>206.61099999999999</v>
+          <cell r="O3">
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>455.93000000000006</v>
+          <cell r="O5">
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="O6">
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -893,25 +891,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>191.243492</v>
+          <cell r="J3">
+            <v>206.61099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>100.476</v>
+          <cell r="J5">
+            <v>455.93000000000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>16.405999999999999</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1216,11 +1216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1618,7 @@
         <v>99285.65233004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
+        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
         <v>-4104</v>
       </c>
       <c r="G17" s="6">
@@ -1626,7 +1626,7 @@
         <v>103389.65233004</v>
       </c>
       <c r="H17" s="6">
-        <f>+[10]Main!$J$3</f>
+        <f>+[7]Main!$J$3</f>
         <v>1108.841326</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2066,7 +2066,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[7]Main!$O$5-[7]Main!$O$6</f>
+        <f>+[8]Main!$O$5-[8]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -2074,7 +2074,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[7]Main!$O$3</f>
+        <f>+[8]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2084,7 +2084,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[7]Model!$BU$39</f>
+        <f>[8]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -2092,11 +2092,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[7]Model!$BU$36</f>
+        <f>+[8]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[7]Model!$BU$37</f>
+        <f>+[8]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2258,7 +2258,7 @@
         <v>1446.277</v>
       </c>
       <c r="F17" s="6">
-        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
+        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
         <v>455.93000000000006</v>
       </c>
       <c r="G17" s="6">
@@ -2266,7 +2266,7 @@
         <v>990.34699999999998</v>
       </c>
       <c r="H17" s="6">
-        <f>+[8]Main!$J$3</f>
+        <f>+[9]Main!$J$3</f>
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2291,7 +2291,7 @@
         <v>166.38183803999999</v>
       </c>
       <c r="F18" s="6">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>84.07</v>
       </c>
       <c r="G18" s="6">
@@ -2299,7 +2299,7 @@
         <v>82.311838039999998</v>
       </c>
       <c r="H18" s="6">
-        <f>+[9]Main!$L$3</f>
+        <f>+[10]Main!$L$3</f>
         <v>191.243492</v>
       </c>
       <c r="I18" s="3" t="s">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550E02F-A0EF-46D6-A264-9CA7D9DF3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C401C8-AA13-4BC5-A59C-968A21CCA9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44430" yWindow="1170" windowWidth="23715" windowHeight="19635" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-40665" yWindow="2580" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>JBL</t>
+  </si>
+  <si>
+    <t>Super Micro</t>
+  </si>
+  <si>
+    <t>SMCI</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1223,10 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1801,17 +1807,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="4">
+        <v>461.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>108</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C401C8-AA13-4BC5-A59C-968A21CCA9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C8A59F-5EED-424F-B182-8EC06B428D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40665" yWindow="2580" windowWidth="38700" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-40320" yWindow="2925" windowWidth="27405" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -464,6 +467,18 @@
   </si>
   <si>
     <t>SMCI</t>
+  </si>
+  <si>
+    <t>Enphase Energy</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>Mobileye</t>
+  </si>
+  <si>
+    <t>MBLY</t>
   </si>
 </sst>
 </file>
@@ -607,6 +622,92 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="O3">
+            <v>15847</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>166333</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>109615</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>206.61099999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>455.93000000000006</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -626,6 +727,40 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>811.04812700000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1203</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -846,44 +981,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="M3">
+            <v>64</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="M5">
+            <v>1670</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="M6">
+            <v>2174</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -903,17 +1020,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>206.61099999999999</v>
+            <v>135.42215899999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>455.93000000000006</v>
+            <v>1646.404</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>0</v>
+            <v>1199.432</v>
           </cell>
         </row>
       </sheetData>
@@ -1220,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,11 +1763,36 @@
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
+      <c r="B18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>137</v>
+      </c>
+      <c r="D18" s="4">
+        <v>461.61</v>
+      </c>
+      <c r="E18" s="6">
+        <f>+D18*H18</f>
+        <v>29543.040000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <v>-504</v>
+      </c>
+      <c r="G18" s="6">
+        <f>+E18-F18</f>
+        <v>30047.040000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <f>+[8]Main!$M$3</f>
+        <v>64</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="10">
+        <v>45560</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1658,10 +1800,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1669,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1680,10 +1822,10 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1691,10 +1833,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1702,10 +1844,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1713,10 +1855,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1724,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1735,10 +1877,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1746,10 +1888,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1757,10 +1899,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1768,10 +1910,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1779,10 +1921,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1790,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1801,38 +1943,101 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>111</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="4">
-        <v>461.61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="4">
+        <v>112</v>
+      </c>
+      <c r="E34" s="6">
+        <f>+D34*H34</f>
+        <v>15167.281808</v>
+      </c>
+      <c r="F34" s="6">
+        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
+        <v>446.97199999999998</v>
+      </c>
+      <c r="G34" s="6">
+        <f>+E34-F34</f>
+        <v>14720.309808</v>
+      </c>
+      <c r="H34" s="6">
+        <f>+[9]Main!$J$3</f>
+        <v>135.42215899999999</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="10">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="4">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6">
+        <f>+D35*H35</f>
+        <v>10543.625651</v>
+      </c>
+      <c r="F35" s="6">
+        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <v>1203</v>
+      </c>
+      <c r="G35" s="6">
+        <f>+E35-F35</f>
+        <v>9340.6256510000003</v>
+      </c>
+      <c r="H35" s="6">
+        <f>+[13]Main!$K$3</f>
+        <v>811.04812700000002</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="10">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1846,6 +2051,9 @@
     <hyperlink ref="B5" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
+    <hyperlink ref="B34" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2086,7 +2294,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[8]Main!$O$5-[8]Main!$O$6</f>
+        <f>+[10]Main!$O$5-[10]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -2094,7 +2302,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[8]Main!$O$3</f>
+        <f>+[10]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2104,7 +2312,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[8]Model!$BU$39</f>
+        <f>[10]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -2112,11 +2320,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[8]Model!$BU$36</f>
+        <f>+[10]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[8]Model!$BU$37</f>
+        <f>+[10]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2278,7 +2486,7 @@
         <v>1446.277</v>
       </c>
       <c r="F17" s="6">
-        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
+        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>455.93000000000006</v>
       </c>
       <c r="G17" s="6">
@@ -2286,7 +2494,7 @@
         <v>990.34699999999998</v>
       </c>
       <c r="H17" s="6">
-        <f>+[9]Main!$J$3</f>
+        <f>+[11]Main!$J$3</f>
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2311,7 +2519,7 @@
         <v>166.38183803999999</v>
       </c>
       <c r="F18" s="6">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>84.07</v>
       </c>
       <c r="G18" s="6">
@@ -2319,7 +2527,7 @@
         <v>82.311838039999998</v>
       </c>
       <c r="H18" s="6">
-        <f>+[10]Main!$L$3</f>
+        <f>+[12]Main!$L$3</f>
         <v>191.243492</v>
       </c>
       <c r="I18" s="3" t="s">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C8A59F-5EED-424F-B182-8EC06B428D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B858A-C822-4578-B9EA-7F5DCFC07DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40320" yWindow="2925" windowWidth="27405" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="7190" yWindow="3990" windowWidth="22660" windowHeight="16110" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -623,44 +624,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="K3">
+            <v>811.04812700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="K5">
+            <v>1203</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -675,26 +658,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>206.61099999999999</v>
+          <cell r="O3">
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>455.93000000000006</v>
+          <cell r="O5">
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="O6">
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -708,25 +709,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>191.243492</v>
+          <cell r="J3">
+            <v>206.61099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>100.476</v>
+          <cell r="J5">
+            <v>455.93000000000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>16.405999999999999</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -740,27 +743,59 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>191.243492</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>100.476</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>16.405999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>811.04812700000002</v>
+          <cell r="L3">
+            <v>1114</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1203</v>
+          <cell r="L5">
+            <v>13032</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="L6">
+            <v>14554</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1339,27 +1374,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="9.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1465,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1557,18 +1592,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>171.54</v>
+      </c>
+      <c r="E9" s="6">
+        <f>+D9*H9</f>
+        <v>191095.56</v>
+      </c>
+      <c r="F9" s="6">
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <v>-1522</v>
+      </c>
+      <c r="G9" s="6">
+        <f>+E9-F9</f>
+        <v>192617.56</v>
+      </c>
+      <c r="H9" s="6">
+        <f>+[14]Main!$L$3</f>
+        <v>1114</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="10">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1607,7 +1667,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1643,7 +1703,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1679,7 +1739,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1723,7 +1783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1759,7 +1819,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1795,7 +1855,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1806,7 +1866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +1877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1828,7 +1888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +1899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1850,7 +1910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1861,7 +1921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1872,7 +1932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +1965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1916,7 +1976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1927,7 +1987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +1998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1949,7 +2009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1960,7 +2020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>138</v>
       </c>
@@ -1993,7 +2053,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
@@ -2008,7 +2068,7 @@
         <v>10543.625651</v>
       </c>
       <c r="F35" s="6">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>1203</v>
       </c>
       <c r="G35" s="6">
@@ -2016,7 +2076,7 @@
         <v>9340.6256510000003</v>
       </c>
       <c r="H35" s="6">
-        <f>+[13]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2026,17 +2086,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2054,6 +2114,7 @@
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
     <hyperlink ref="B34" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
     <hyperlink ref="B35" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2070,13 +2131,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2169,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2125,7 +2186,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2136,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2158,7 +2219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2210,26 +2271,26 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2294,7 +2355,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[10]Main!$O$5-[10]Main!$O$6</f>
+        <f>+[11]Main!$O$5-[11]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -2302,7 +2363,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[10]Main!$O$3</f>
+        <f>+[11]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2312,7 +2373,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[10]Model!$BU$39</f>
+        <f>[11]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -2320,11 +2381,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[10]Model!$BU$36</f>
+        <f>+[11]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[10]Model!$BU$37</f>
+        <f>+[11]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2334,7 +2395,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2345,7 +2406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2367,7 +2428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2378,7 +2439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2389,7 +2450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2400,7 +2461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2411,7 +2472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2483,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2455,7 +2516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2466,12 +2527,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2486,7 +2547,7 @@
         <v>1446.277</v>
       </c>
       <c r="F17" s="6">
-        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
+        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
         <v>455.93000000000006</v>
       </c>
       <c r="G17" s="6">
@@ -2494,7 +2555,7 @@
         <v>990.34699999999998</v>
       </c>
       <c r="H17" s="6">
-        <f>+[11]Main!$J$3</f>
+        <f>+[12]Main!$J$3</f>
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2504,7 +2565,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -2519,7 +2580,7 @@
         <v>166.38183803999999</v>
       </c>
       <c r="F18" s="6">
-        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
         <v>84.07</v>
       </c>
       <c r="G18" s="6">
@@ -2527,7 +2588,7 @@
         <v>82.311838039999998</v>
       </c>
       <c r="H18" s="6">
-        <f>+[12]Main!$L$3</f>
+        <f>+[13]Main!$L$3</f>
         <v>191.243492</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2537,7 +2598,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>129</v>
       </c>
@@ -2545,7 +2606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>131</v>
       </c>
@@ -2553,7 +2614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>134</v>
       </c>
@@ -2564,12 +2625,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -2577,7 +2638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -2585,7 +2646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2608,12 +2669,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>124</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B858A-C822-4578-B9EA-7F5DCFC07DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E72548-4A3C-49E5-87FF-8331B8715767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7190" yWindow="3990" windowWidth="22660" windowHeight="16110" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -628,18 +629,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>811.04812700000002</v>
+          <cell r="J3">
+            <v>135.42215899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1203</v>
+          <cell r="J5">
+            <v>1646.404</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="J6">
+            <v>1199.432</v>
           </cell>
         </row>
       </sheetData>
@@ -658,44 +659,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="K3">
+            <v>811.04812700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="K5">
+            <v>1203</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -710,26 +693,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>206.61099999999999</v>
+          <cell r="O3">
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>455.93000000000006</v>
+          <cell r="O5">
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="O6">
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -743,25 +744,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>191.243492</v>
+          <cell r="J3">
+            <v>206.61099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>100.476</v>
+          <cell r="J5">
+            <v>455.93000000000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>16.405999999999999</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -775,23 +778,55 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>191.243492</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>100.476</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>16.405999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1114</v>
+            <v>393.5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>13032</v>
+            <v>6021.2000000000007</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>14554</v>
+            <v>4608.2</v>
           </cell>
         </row>
       </sheetData>
@@ -849,7 +884,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>4800</v>
+            <v>4670.5760829999999</v>
           </cell>
         </row>
         <row r="5">
@@ -863,7 +898,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -882,18 +917,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1618</v>
+          <cell r="L3">
+            <v>1114</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>5855</v>
+          <cell r="L5">
+            <v>13032</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>2467</v>
+          <cell r="L6">
+            <v>14554</v>
           </cell>
         </row>
       </sheetData>
@@ -916,18 +951,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>907.57171200000005</v>
+          <cell r="M3">
+            <v>1618</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>9090</v>
+          <cell r="M5">
+            <v>5855</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>7937</v>
+          <cell r="M6">
+            <v>2467</v>
           </cell>
         </row>
       </sheetData>
@@ -946,28 +981,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>4267</v>
+          <cell r="K3">
+            <v>907.57171200000005</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>35097</v>
+          <cell r="K5">
+            <v>9090</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>53029</v>
+          <cell r="K6">
+            <v>7937</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -982,26 +1015,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>1108.841326</v>
+          <cell r="L3">
+            <v>4267</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>9154</v>
+          <cell r="L5">
+            <v>35097</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>13258</v>
+          <cell r="L6">
+            <v>53029</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1020,18 +1055,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>64</v>
+          <cell r="J3">
+            <v>1108.841326</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>1670</v>
+          <cell r="J5">
+            <v>9154</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>2174</v>
+          <cell r="J6">
+            <v>13258</v>
           </cell>
         </row>
       </sheetData>
@@ -1054,18 +1089,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>135.42215899999999</v>
+          <cell r="M3">
+            <v>64</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>1646.404</v>
+          <cell r="M5">
+            <v>1670</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>1199.432</v>
+          <cell r="M6">
+            <v>2174</v>
           </cell>
         </row>
       </sheetData>
@@ -1375,10 +1410,10 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1476,11 +1511,11 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>169</v>
+        <v>189.3</v>
       </c>
       <c r="E4" s="6">
         <f>+D4*H4/5</f>
-        <v>876467.8</v>
+        <v>981747.66000000015</v>
       </c>
       <c r="F4" s="6">
         <f>+[2]Main!$J$7-[2]Main!$J$8</f>
@@ -1488,7 +1523,7 @@
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>839518.8</v>
+        <v>944798.66000000015</v>
       </c>
       <c r="H4" s="6">
         <f>+[2]Main!$J$4</f>
@@ -1512,11 +1547,11 @@
         <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>964</v>
+        <v>1045</v>
       </c>
       <c r="E5" s="6">
         <f>+D5*H5/FX!C2</f>
-        <v>781904.41038473567</v>
+        <v>842858.3203732504</v>
       </c>
       <c r="F5" s="6">
         <f>+[2]Main!$J$7-[2]Main!$J$8</f>
@@ -1524,7 +1559,7 @@
       </c>
       <c r="G5" s="6">
         <f>+E5-F5</f>
-        <v>744955.41038473567</v>
+        <v>805909.3203732504</v>
       </c>
       <c r="H5" s="6">
         <f>+[2]Main!$J$4</f>
@@ -1541,91 +1576,122 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>154</v>
+      </c>
+      <c r="E6" s="6">
+        <f>+D6*H6</f>
+        <v>719268.71678200003</v>
+      </c>
+      <c r="F6" s="6">
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <v>-61604</v>
+      </c>
+      <c r="G6" s="6">
+        <f>+E6-F6</f>
+        <v>780872.71678200003</v>
+      </c>
+      <c r="H6" s="6">
+        <f>+[3]Main!$J$3</f>
+        <v>4670.5760829999999</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="10">
+        <v>45581</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4">
-        <v>154</v>
-      </c>
-      <c r="E7" s="6">
-        <f>+D7*H7</f>
-        <v>739200</v>
-      </c>
-      <c r="F7" s="6">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
-        <v>-61604</v>
-      </c>
-      <c r="G7" s="6">
-        <f>+E7-F7</f>
-        <v>800804</v>
-      </c>
-      <c r="H7" s="6">
-        <f>+[3]Main!$J$3</f>
-        <v>4800</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
+      <c r="D8" s="3">
+        <v>684.78</v>
+      </c>
+      <c r="E8" s="6">
+        <f>+D8*H8</f>
+        <v>269460.93</v>
+      </c>
+      <c r="F8" s="6">
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <v>1413.0000000000009</v>
+      </c>
+      <c r="G8" s="6">
+        <f>+E8-F8</f>
+        <v>268047.93</v>
+      </c>
+      <c r="H8" s="6">
+        <f>+[15]Main!$L$3</f>
+        <v>393.5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="10">
+        <v>45581</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3">
-        <v>171.54</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>130</v>
       </c>
       <c r="E9" s="6">
         <f>+D9*H9</f>
-        <v>191095.56</v>
+        <v>210340</v>
       </c>
       <c r="F9" s="6">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>-1522</v>
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <v>3388</v>
       </c>
       <c r="G9" s="6">
         <f>+E9-F9</f>
-        <v>192617.56</v>
+        <v>206952</v>
       </c>
       <c r="H9" s="6">
-        <f>+[14]Main!$L$3</f>
-        <v>1114</v>
+        <f>+[5]Main!$M$3</f>
+        <v>1618</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J9" s="10">
-        <v>45581</v>
+        <v>45507</v>
+      </c>
+      <c r="K9">
+        <v>1969</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1633,38 +1699,35 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>171.54</v>
       </c>
       <c r="E10" s="6">
         <f>+D10*H10</f>
-        <v>210340</v>
+        <v>191095.56</v>
       </c>
       <c r="F10" s="6">
-        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
-        <v>3388</v>
+        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
+        <v>-1522</v>
       </c>
       <c r="G10" s="6">
         <f>+E10-F10</f>
-        <v>206952</v>
+        <v>192617.56</v>
       </c>
       <c r="H10" s="6">
-        <f>+[4]Main!$M$3</f>
-        <v>1618</v>
+        <f>+[4]Main!$L$3</f>
+        <v>1114</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J10" s="10">
-        <v>45507</v>
-      </c>
-      <c r="K10">
-        <v>1969</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1685,7 +1748,7 @@
         <v>154595.76542208</v>
       </c>
       <c r="F11" s="6">
-        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>1153</v>
       </c>
       <c r="G11" s="6">
@@ -1693,7 +1756,7 @@
         <v>153442.76542208</v>
       </c>
       <c r="H11" s="6">
-        <f>+[5]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>907.57171200000005</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1721,7 +1784,7 @@
         <v>89607</v>
       </c>
       <c r="F12" s="6">
-        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
+        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
         <v>-17932</v>
       </c>
       <c r="G12" s="6">
@@ -1729,7 +1792,7 @@
         <v>107539</v>
       </c>
       <c r="H12" s="6">
-        <f>+[6]Main!$L$3</f>
+        <f>+[7]Main!$L$3</f>
         <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1801,7 +1864,7 @@
         <v>99285.65233004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
         <v>-4104</v>
       </c>
       <c r="G17" s="6">
@@ -1809,7 +1872,7 @@
         <v>103389.65233004</v>
       </c>
       <c r="H17" s="6">
-        <f>+[7]Main!$J$3</f>
+        <f>+[8]Main!$J$3</f>
         <v>1108.841326</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -1837,7 +1900,7 @@
         <v>29543.040000000001</v>
       </c>
       <c r="F18" s="6">
-        <f>+[8]Main!$M$5-[8]Main!$M$6</f>
+        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
         <v>-504</v>
       </c>
       <c r="G18" s="6">
@@ -1845,7 +1908,7 @@
         <v>30047.040000000001</v>
       </c>
       <c r="H18" s="6">
-        <f>+[8]Main!$M$3</f>
+        <f>+[9]Main!$M$3</f>
         <v>64</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2035,7 +2098,7 @@
         <v>15167.281808</v>
       </c>
       <c r="F34" s="6">
-        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
+        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
       <c r="G34" s="6">
@@ -2043,7 +2106,7 @@
         <v>14720.309808</v>
       </c>
       <c r="H34" s="6">
-        <f>+[9]Main!$J$3</f>
+        <f>+[10]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2068,7 +2131,7 @@
         <v>10543.625651</v>
       </c>
       <c r="F35" s="6">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>1203</v>
       </c>
       <c r="G35" s="6">
@@ -2076,7 +2139,7 @@
         <v>9340.6256510000003</v>
       </c>
       <c r="H35" s="6">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2106,15 +2169,16 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{82B60337-F6F7-4A89-BE21-94E4E4FAE923}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
     <hyperlink ref="B12" r:id="rId3" xr:uid="{ACBF0F19-D83E-41D4-B3AD-01439A0CCE2D}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{D5C26AF1-ADC4-4E03-9D8B-12F3C24C324B}"/>
     <hyperlink ref="B5" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
     <hyperlink ref="B34" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
     <hyperlink ref="B35" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
-    <hyperlink ref="B9" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2355,7 +2419,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[11]Main!$O$5-[11]Main!$O$6</f>
+        <f>+[12]Main!$O$5-[12]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -2363,7 +2427,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[11]Main!$O$3</f>
+        <f>+[12]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2373,7 +2437,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[11]Model!$BU$39</f>
+        <f>[12]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -2381,11 +2445,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[11]Model!$BU$36</f>
+        <f>+[12]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[11]Model!$BU$37</f>
+        <f>+[12]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2547,7 +2611,7 @@
         <v>1446.277</v>
       </c>
       <c r="F17" s="6">
-        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>455.93000000000006</v>
       </c>
       <c r="G17" s="6">
@@ -2555,7 +2619,7 @@
         <v>990.34699999999998</v>
       </c>
       <c r="H17" s="6">
-        <f>+[12]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2580,7 +2644,7 @@
         <v>166.38183803999999</v>
       </c>
       <c r="F18" s="6">
-        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>84.07</v>
       </c>
       <c r="G18" s="6">
@@ -2588,7 +2652,7 @@
         <v>82.311838039999998</v>
       </c>
       <c r="H18" s="6">
-        <f>+[13]Main!$L$3</f>
+        <f>+[14]Main!$L$3</f>
         <v>191.243492</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2666,7 +2730,7 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2743,7 @@
         <v>124</v>
       </c>
       <c r="C2">
-        <v>31.97</v>
+        <v>32.15</v>
       </c>
     </row>
   </sheetData>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E72548-4A3C-49E5-87FF-8331B8715767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A1C65-BBC9-45C8-8FDA-A58E3C06DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -629,22 +629,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>135.42215899999999</v>
+          <cell r="M3">
+            <v>640</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>1646.404</v>
+          <cell r="M5">
+            <v>1670</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>1199.432</v>
+          <cell r="M6">
+            <v>2174</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -663,18 +663,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>811.04812700000002</v>
+          <cell r="J3">
+            <v>135.42215899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>1203</v>
+          <cell r="J5">
+            <v>1646.404</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="J6">
+            <v>1199.432</v>
           </cell>
         </row>
       </sheetData>
@@ -693,44 +693,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="K3">
+            <v>811.04812700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="K5">
+            <v>1203</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -745,26 +727,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>206.61099999999999</v>
+          <cell r="O3">
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>455.93000000000006</v>
+          <cell r="O5">
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="O6">
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -778,25 +778,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>191.243492</v>
+          <cell r="J3">
+            <v>206.61099999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>100.476</v>
+          <cell r="J5">
+            <v>455.93000000000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>16.405999999999999</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -810,27 +812,25 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>393.5</v>
+            <v>191.243492</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>6021.2000000000007</v>
+            <v>100.476</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>4608.2</v>
+            <v>16.405999999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -898,7 +898,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -918,17 +918,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>1114</v>
+            <v>393.5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>13032</v>
+            <v>6021.2000000000007</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>14554</v>
+            <v>4608.2</v>
           </cell>
         </row>
       </sheetData>
@@ -985,18 +985,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>907.57171200000005</v>
+          <cell r="L3">
+            <v>1114</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>9090</v>
+          <cell r="L5">
+            <v>13032</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>7937</v>
+          <cell r="L6">
+            <v>14554</v>
           </cell>
         </row>
       </sheetData>
@@ -1015,28 +1015,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>4267</v>
+          <cell r="K3">
+            <v>907.57171200000005</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>35097</v>
+          <cell r="K5">
+            <v>9090</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>53029</v>
+          <cell r="K6">
+            <v>7937</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1051,26 +1049,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="14th"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>1108.841326</v>
+          <cell r="L3">
+            <v>4267</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>9154</v>
+          <cell r="L5">
+            <v>35097</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>13258</v>
+          <cell r="L6">
+            <v>53029</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1089,18 +1089,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>64</v>
+          <cell r="J3">
+            <v>1108.841326</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>1670</v>
+          <cell r="J5">
+            <v>9154</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>2174</v>
+          <cell r="J6">
+            <v>13258</v>
           </cell>
         </row>
       </sheetData>
@@ -1410,26 +1410,26 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="9.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>269460.93</v>
       </c>
       <c r="F8" s="6">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
         <v>1413.0000000000009</v>
       </c>
       <c r="G8" s="6">
@@ -1645,7 +1645,7 @@
         <v>268047.93</v>
       </c>
       <c r="H8" s="6">
-        <f>+[15]Main!$L$3</f>
+        <f>+[4]Main!$L$3</f>
         <v>393.5</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1655,7 +1655,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>191095.56</v>
       </c>
       <c r="F10" s="6">
-        <f>+[4]Main!$L$5-[4]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-1522</v>
       </c>
       <c r="G10" s="6">
@@ -1720,7 +1720,7 @@
         <v>192617.56</v>
       </c>
       <c r="H10" s="6">
-        <f>+[4]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>1114</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1730,7 +1730,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>154595.76542208</v>
       </c>
       <c r="F11" s="6">
-        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
         <v>1153</v>
       </c>
       <c r="G11" s="6">
@@ -1756,7 +1756,7 @@
         <v>153442.76542208</v>
       </c>
       <c r="H11" s="6">
-        <f>+[6]Main!$K$3</f>
+        <f>+[7]Main!$K$3</f>
         <v>907.57171200000005</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1766,7 +1766,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>89607</v>
       </c>
       <c r="F12" s="6">
-        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
+        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-17932</v>
       </c>
       <c r="G12" s="6">
@@ -1792,7 +1792,7 @@
         <v>107539</v>
       </c>
       <c r="H12" s="6">
-        <f>+[7]Main!$L$3</f>
+        <f>+[8]Main!$L$3</f>
         <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1802,7 +1802,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>99285.65233004</v>
       </c>
       <c r="F17" s="6">
-        <f>+[8]Main!$J$5-[8]Main!$J$6</f>
+        <f>+[9]Main!$J$5-[9]Main!$J$6</f>
         <v>-4104</v>
       </c>
       <c r="G17" s="6">
@@ -1872,7 +1872,7 @@
         <v>103389.65233004</v>
       </c>
       <c r="H17" s="6">
-        <f>+[8]Main!$J$3</f>
+        <f>+[9]Main!$J$3</f>
         <v>1108.841326</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -1882,7 +1882,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1893,23 +1893,23 @@
         <v>137</v>
       </c>
       <c r="D18" s="4">
-        <v>461.61</v>
+        <v>20.65</v>
       </c>
       <c r="E18" s="6">
         <f>+D18*H18</f>
-        <v>29543.040000000001</v>
+        <v>13216</v>
       </c>
       <c r="F18" s="6">
-        <f>+[9]Main!$M$5-[9]Main!$M$6</f>
+        <f>+[10]Main!$M$5-[10]Main!$M$6</f>
         <v>-504</v>
       </c>
       <c r="G18" s="6">
         <f>+E18-F18</f>
-        <v>30047.040000000001</v>
+        <v>13720</v>
       </c>
       <c r="H18" s="6">
-        <f>+[9]Main!$M$3</f>
-        <v>64</v>
+        <f>+[10]Main!$M$3</f>
+        <v>640</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>122</v>
@@ -1918,7 +1918,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>138</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>15167.281808</v>
       </c>
       <c r="F34" s="6">
-        <f>+[10]Main!$J$5-[10]Main!$J$6</f>
+        <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
       <c r="G34" s="6">
@@ -2106,7 +2106,7 @@
         <v>14720.309808</v>
       </c>
       <c r="H34" s="6">
-        <f>+[10]Main!$J$3</f>
+        <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2116,7 +2116,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>10543.625651</v>
       </c>
       <c r="F35" s="6">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
       <c r="G35" s="6">
@@ -2139,7 +2139,7 @@
         <v>9340.6256510000003</v>
       </c>
       <c r="H35" s="6">
-        <f>+[11]Main!$K$3</f>
+        <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2149,17 +2149,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2195,13 +2195,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2335,26 +2335,26 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[12]Main!$O$5-[12]Main!$O$6</f>
+        <f>+[13]Main!$O$5-[13]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -2427,7 +2427,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[12]Main!$O$3</f>
+        <f>+[13]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2437,7 +2437,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[12]Model!$BU$39</f>
+        <f>[13]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -2445,11 +2445,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[12]Model!$BU$36</f>
+        <f>+[13]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[12]Model!$BU$37</f>
+        <f>+[13]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -2459,7 +2459,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2591,12 +2591,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>1446.277</v>
       </c>
       <c r="F17" s="6">
-        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>455.93000000000006</v>
       </c>
       <c r="G17" s="6">
@@ -2619,7 +2619,7 @@
         <v>990.34699999999998</v>
       </c>
       <c r="H17" s="6">
-        <f>+[13]Main!$J$3</f>
+        <f>+[14]Main!$J$3</f>
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2629,7 +2629,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>166.38183803999999</v>
       </c>
       <c r="F18" s="6">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>84.07</v>
       </c>
       <c r="G18" s="6">
@@ -2652,7 +2652,7 @@
         <v>82.311838039999998</v>
       </c>
       <c r="H18" s="6">
-        <f>+[14]Main!$L$3</f>
+        <f>+[15]Main!$L$3</f>
         <v>191.243492</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2662,7 +2662,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>129</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>131</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>134</v>
       </c>
@@ -2689,12 +2689,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2733,12 +2733,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>124</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A1C65-BBC9-45C8-8FDA-A58E3C06DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD5407-BC5D-42A2-92D0-01A47C758851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="2400" windowWidth="22335" windowHeight="15345" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1410,10 +1410,10 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1426,7 @@
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1666,11 +1666,11 @@
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6">
         <f>+D9*H9</f>
-        <v>210340</v>
+        <v>231374</v>
       </c>
       <c r="F9" s="6">
         <f>+[5]Main!$M$5-[5]Main!$M$6</f>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="G9" s="6">
         <f>+E9-F9</f>
-        <v>206952</v>
+        <v>227986</v>
       </c>
       <c r="H9" s="6">
         <f>+[5]Main!$M$3</f>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD5407-BC5D-42A2-92D0-01A47C758851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545C998-3213-4E93-8EC5-F36BA90CCC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -1050,6 +1050,8 @@
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="14th"/>
+      <sheetName val="IP"/>
+      <sheetName val="Semiconductors"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1069,8 +1071,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1409,11 +1413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,11 +1781,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>21</v>
+        <v>20.91</v>
       </c>
       <c r="E12" s="6">
         <f>+D12*H12</f>
-        <v>89607</v>
+        <v>89222.97</v>
       </c>
       <c r="F12" s="6">
         <f>+[8]Main!$L$5-[8]Main!$L$6</f>
@@ -1789,7 +1793,7 @@
       </c>
       <c r="G12" s="6">
         <f>+E12-F12</f>
-        <v>107539</v>
+        <v>107154.97</v>
       </c>
       <c r="H12" s="6">
         <f>+[8]Main!$L$3</f>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545C998-3213-4E93-8EC5-F36BA90CCC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF2133-A94E-44AF-88F4-16309533BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2175" windowWidth="25215" windowHeight="16575" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-27120" yWindow="1260" windowWidth="25845" windowHeight="19815" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -1417,7 +1417,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF2133-A94E-44AF-88F4-16309533BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CEB35A-D128-4858-B4F4-BD03B74A6554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="1260" windowWidth="25845" windowHeight="19815" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-27525" yWindow="1650" windowWidth="27210" windowHeight="17880" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
-    <sheet name="Networking" sheetId="3" r:id="rId2"/>
-    <sheet name="Electronics-Computers" sheetId="2" r:id="rId3"/>
-    <sheet name="FX" sheetId="4" r:id="rId4"/>
+    <sheet name="Quantum" sheetId="5" r:id="rId2"/>
+    <sheet name="Networking" sheetId="3" r:id="rId3"/>
+    <sheet name="Electronics-Computers" sheetId="2" r:id="rId4"/>
+    <sheet name="FX" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -426,12 +427,6 @@
     <t>Q224</t>
   </si>
   <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>NTD/TWD</t>
-  </si>
-  <si>
     <t>IonQ</t>
   </si>
   <si>
@@ -481,6 +476,174 @@
   </si>
   <si>
     <t>MBLY</t>
+  </si>
+  <si>
+    <t>Quantinuum</t>
+  </si>
+  <si>
+    <t>Quantum Computing Inc</t>
+  </si>
+  <si>
+    <t>QUBT</t>
+  </si>
+  <si>
+    <t>Multiverse Computing</t>
+  </si>
+  <si>
+    <t>IQM Quantum Computers</t>
+  </si>
+  <si>
+    <t>Infleqtion</t>
+  </si>
+  <si>
+    <t>Quantum Brilliance</t>
+  </si>
+  <si>
+    <t>Nu Quantum</t>
+  </si>
+  <si>
+    <t>BlueQubit</t>
+  </si>
+  <si>
+    <t>Alice &amp; Bob</t>
+  </si>
+  <si>
+    <t>Quanscient</t>
+  </si>
+  <si>
+    <t>Quantum Circuits</t>
+  </si>
+  <si>
+    <t>Qblox</t>
+  </si>
+  <si>
+    <t>Quantum Motion</t>
+  </si>
+  <si>
+    <t>Quobly</t>
+  </si>
+  <si>
+    <t>Quantum Machines</t>
+  </si>
+  <si>
+    <t>BTQ</t>
+  </si>
+  <si>
+    <t>Classiq Technologies</t>
+  </si>
+  <si>
+    <t>Diraq</t>
+  </si>
+  <si>
+    <t>PQShield</t>
+  </si>
+  <si>
+    <t>Q-CTRL</t>
+  </si>
+  <si>
+    <t>QuSecure</t>
+  </si>
+  <si>
+    <t>GTN</t>
+  </si>
+  <si>
+    <t>Quintessence Labs</t>
+  </si>
+  <si>
+    <t>Xanadu</t>
+  </si>
+  <si>
+    <t>Quibtekk</t>
+  </si>
+  <si>
+    <t>Zapata Computing</t>
+  </si>
+  <si>
+    <t>ZPTA</t>
+  </si>
+  <si>
+    <t>UbiQD</t>
+  </si>
+  <si>
+    <t>T-Rize Group</t>
+  </si>
+  <si>
+    <t>Algorithmiq</t>
+  </si>
+  <si>
+    <t>Fabric Cryptography</t>
+  </si>
+  <si>
+    <t>Oxford Quantum Circuits</t>
+  </si>
+  <si>
+    <t>planqc</t>
+  </si>
+  <si>
+    <t>Terra Quantum</t>
+  </si>
+  <si>
+    <t>SemiQon</t>
+  </si>
+  <si>
+    <t>PsiQuantum</t>
+  </si>
+  <si>
+    <t>BosonQ Psi</t>
+  </si>
+  <si>
+    <t>Quantum Source</t>
+  </si>
+  <si>
+    <t>Quandela</t>
+  </si>
+  <si>
+    <t>Arctic Instruments</t>
+  </si>
+  <si>
+    <t>QC Ware</t>
+  </si>
+  <si>
+    <t>SeeQC</t>
+  </si>
+  <si>
+    <t>Photonic</t>
+  </si>
+  <si>
+    <t>QunaSys</t>
+  </si>
+  <si>
+    <t>Oxford Ionics</t>
+  </si>
+  <si>
+    <t>Agnostiq</t>
+  </si>
+  <si>
+    <t>Phasecraft</t>
+  </si>
+  <si>
+    <t>Origin Quantum</t>
+  </si>
+  <si>
+    <t>PASQAL</t>
+  </si>
+  <si>
+    <t>Silicon Quantum Computing</t>
+  </si>
+  <si>
+    <t>Riverlane</t>
+  </si>
+  <si>
+    <t>InVisage Technologies</t>
+  </si>
+  <si>
+    <t>Cambridge Quantum Computing</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>NTD</t>
   </si>
 </sst>
 </file>
@@ -534,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -560,6 +723,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,22 +759,22 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>24600</v>
+            <v>24774</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>31438</v>
+            <v>38487</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>9710</v>
+            <v>8462</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -864,7 +1028,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1071,10 +1235,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1417,7 +1581,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1476,29 +1640,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>120</v>
+        <v>139.74</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2952000</v>
+        <v>3461918.7600000002</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>21728</v>
+        <v>30025</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2930272</v>
+        <v>3431893.7600000002</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
-        <v>24600</v>
+        <v>24774</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="J3" s="10">
-        <v>45532</v>
+        <v>45651</v>
       </c>
       <c r="K3">
         <v>1993</v>
@@ -1515,11 +1679,11 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>189.3</v>
+        <v>206</v>
       </c>
       <c r="E4" s="6">
         <f>+D4*H4/5</f>
-        <v>981747.66000000015</v>
+        <v>1068357.2</v>
       </c>
       <c r="F4" s="6">
         <f>+[2]Main!$J$7-[2]Main!$J$8</f>
@@ -1527,17 +1691,17 @@
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>944798.66000000015</v>
+        <v>1031408.2</v>
       </c>
       <c r="H4" s="6">
         <f>+[2]Main!$J$4</f>
         <v>25931</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="J4" s="10">
-        <v>45532</v>
+        <v>45652</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1551,11 +1715,11 @@
         <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="6">
         <f>+D5*H5/FX!C2</f>
-        <v>842858.3203732504</v>
+        <v>860928.24357405142</v>
       </c>
       <c r="F5" s="6">
         <f>+[2]Main!$J$7-[2]Main!$J$8</f>
@@ -1563,17 +1727,19 @@
       </c>
       <c r="G5" s="6">
         <f>+E5-F5</f>
-        <v>805909.3203732504</v>
+        <v>823979.24357405142</v>
       </c>
       <c r="H5" s="6">
         <f>+[2]Main!$J$4</f>
         <v>25931</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>122</v>
+      <c r="I5" s="3" t="str">
+        <f>+I4</f>
+        <v>Q324</v>
       </c>
       <c r="J5" s="10">
-        <v>45532</v>
+        <f>+J4</f>
+        <v>45652</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1891,10 +2057,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="4">
         <v>20.65</v>
@@ -2089,10 +2255,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="4">
         <v>112</v>
@@ -2122,10 +2288,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4">
         <v>13</v>
@@ -2189,6 +2355,392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5">
+        <v>11.71</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
@@ -2328,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
@@ -2355,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2602,10 +3154,10 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>7</v>
@@ -2627,7 +3179,7 @@
         <v>206.61099999999999</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J17" s="5">
         <v>45534</v>
@@ -2635,10 +3187,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3">
         <v>0.87</v>
@@ -2668,26 +3220,26 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3">
         <v>101.64</v>
@@ -2729,12 +3281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72FDEE-60E0-4B9B-AACF-AB184FD947A1}">
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2744,10 +3296,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C2">
-        <v>32.15</v>
+        <v>32.68</v>
       </c>
     </row>
   </sheetData>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CEB35A-D128-4858-B4F4-BD03B74A6554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B10F68-4651-4A4D-8BF3-ED9C43DFC0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="1650" windowWidth="27210" windowHeight="17880" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="17180" yWindow="3390" windowWidth="21210" windowHeight="15660" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -773,8 +774,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -976,25 +977,61 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>191.243492</v>
+            <v>280.39580899999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>100.476</v>
+            <v>250.98</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>16.405999999999999</v>
+            <v>13.308</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>260.01482900000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>199.27</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>46.082999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1028,7 +1065,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1577,27 +1614,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1705,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1704,7 +1741,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1742,7 +1779,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1825,7 +1862,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1864,7 +1901,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1900,7 +1937,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1973,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1972,7 +2009,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1983,7 +2020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2089,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2088,7 +2125,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2099,7 +2136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2143,7 +2180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2165,7 +2202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2176,7 +2213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2187,7 +2224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2253,7 +2290,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
@@ -2286,7 +2323,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2319,17 +2356,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2358,25 +2395,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -2426,36 +2463,36 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>125</v>
       </c>
       <c r="D4" s="2">
-        <v>44.5</v>
+        <v>50</v>
       </c>
       <c r="E4" s="13">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
       </c>
       <c r="D5">
-        <v>11.71</v>
+        <v>19.47</v>
       </c>
       <c r="E5" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C6" t="s">
@@ -2468,7 +2505,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>127</v>
       </c>
@@ -2476,128 +2513,147 @@
         <v>126</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E7" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <f>+D7*H7</f>
+        <v>2418.1379097000004</v>
+      </c>
+      <c r="F7" s="13">
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <v>153.18700000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <f>+E7-F7</f>
+        <v>2264.9509097000005</v>
+      </c>
+      <c r="H7" s="13">
+        <f>+[16]Main!$L$3</f>
+        <v>260.01482900000002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>166</v>
       </c>
@@ -2605,137 +2661,142 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{48212D98-F0E3-4509-96A5-6BB9683E0B25}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{F1FD0F3E-AA09-4EA5-ABFA-C8FDF989BBD7}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{31AE1ADD-F109-4DDC-933D-81406D33D7B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2751,13 +2812,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2867,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2817,7 +2878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2828,7 +2889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2839,7 +2900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2850,7 +2911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2861,7 +2922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2891,26 +2952,26 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +3018,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3015,7 +3076,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3026,7 +3087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3037,7 +3098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3059,7 +3120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3070,7 +3131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3081,7 +3142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3092,7 +3153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3103,7 +3164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3114,7 +3175,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3125,7 +3186,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3147,12 +3208,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>123</v>
       </c>
@@ -3185,7 +3246,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>124</v>
       </c>
@@ -3197,19 +3258,19 @@
       </c>
       <c r="E18" s="6">
         <f>+D18*H18</f>
-        <v>166.38183803999999</v>
+        <v>243.94435382999998</v>
       </c>
       <c r="F18" s="6">
         <f>+[15]Main!$L$5-[15]Main!$L$6</f>
-        <v>84.07</v>
+        <v>237.672</v>
       </c>
       <c r="G18" s="6">
         <f>+E18-F18</f>
-        <v>82.311838039999998</v>
+        <v>6.2723538299999859</v>
       </c>
       <c r="H18" s="6">
         <f>+[15]Main!$L$3</f>
-        <v>191.243492</v>
+        <v>280.39580899999999</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>122</v>
@@ -3218,7 +3279,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>127</v>
       </c>
@@ -3226,7 +3287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -3234,7 +3295,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>132</v>
       </c>
@@ -3245,12 +3306,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -3258,7 +3319,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -3266,7 +3327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -3289,12 +3350,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>195</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B10F68-4651-4A4D-8BF3-ED9C43DFC0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6B74C-D9CB-475E-87B3-767974132C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="3390" windowWidth="21210" windowHeight="15660" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>NTD</t>
+  </si>
+  <si>
+    <t>SealSQ</t>
+  </si>
+  <si>
+    <t>LAES</t>
   </si>
 </sst>
 </file>
@@ -892,44 +898,26 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="L3">
+            <v>260.01482900000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="L5">
+            <v>199.27</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="L6">
+            <v>46.082999999999998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -944,26 +932,44 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>206.61099999999999</v>
+          <cell r="O3">
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>455.93000000000006</v>
+          <cell r="O5">
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="O6">
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="BU36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BU37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -977,27 +983,29 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>280.39580899999999</v>
+          <cell r="J3">
+            <v>214.30505299999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>250.98</v>
+          <cell r="J5">
+            <v>383</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>13.308</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1012,26 +1020,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Bubbles"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>260.01482900000002</v>
+            <v>280.39580899999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>199.27</v>
+            <v>250.98</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>46.082999999999998</v>
+            <v>13.308</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1621,20 +1631,20 @@
       <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1937,7 +1947,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2125,7 +2135,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2224,7 +2234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2356,17 +2366,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2399,21 +2409,21 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>140</v>
       </c>
@@ -2463,7 +2473,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>123</v>
       </c>
@@ -2471,13 +2481,32 @@
         <v>125</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f>+D4*H4</f>
+        <v>10929.557702999999</v>
+      </c>
+      <c r="F4" s="13">
+        <f>+[15]Main!$J$5-[15]Main!$J$6</f>
+        <v>383</v>
+      </c>
+      <c r="G4" s="13">
+        <f>+E4-F4</f>
+        <v>10546.557702999999</v>
+      </c>
+      <c r="H4" s="13">
+        <f>+[15]Main!$J$3</f>
+        <v>214.30505299999999</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
@@ -2488,10 +2517,29 @@
         <v>19.47</v>
       </c>
       <c r="E5" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f>+D5*H5</f>
+        <v>5459.3064012299992</v>
+      </c>
+      <c r="F5" s="13">
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <v>237.672</v>
+      </c>
+      <c r="G5" s="13">
+        <f>E5-F5</f>
+        <v>5221.6344012299996</v>
+      </c>
+      <c r="H5" s="13">
+        <f>+[16]Main!$L$3</f>
+        <v>280.39580899999999</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
@@ -2505,7 +2553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>127</v>
       </c>
@@ -2520,7 +2568,7 @@
         <v>2418.1379097000004</v>
       </c>
       <c r="F7" s="13">
-        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
         <v>153.18700000000001</v>
       </c>
       <c r="G7" s="13">
@@ -2528,7 +2576,7 @@
         <v>2264.9509097000005</v>
       </c>
       <c r="H7" s="13">
-        <f>+[16]Main!$L$3</f>
+        <f>+[13]Main!$L$3</f>
         <v>260.01482900000002</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2538,122 +2586,133 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>166</v>
       </c>
@@ -2661,132 +2720,132 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>193</v>
       </c>
@@ -2812,13 +2871,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2909,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +2926,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2878,7 +2937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2889,7 +2948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2900,7 +2959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2911,7 +2970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2922,7 +2981,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2952,26 +3011,26 @@
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3036,7 +3095,7 @@
         <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
-        <f>+[13]Main!$O$5-[13]Main!$O$6</f>
+        <f>+[14]Main!$O$5-[14]Main!$O$6</f>
         <v>56718</v>
       </c>
       <c r="G3" s="6">
@@ -3044,7 +3103,7 @@
         <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
-        <f>+[13]Main!$O$3</f>
+        <f>+[14]Main!$O$3</f>
         <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3054,7 +3113,7 @@
         <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[13]Model!$BU$39</f>
+        <f>[14]Model!$BU$39</f>
         <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
@@ -3062,11 +3121,11 @@
         <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[13]Model!$BU$36</f>
+        <f>+[14]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[13]Model!$BU$37</f>
+        <f>+[14]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -3076,7 +3135,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3098,7 +3157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3109,7 +3168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3120,7 +3179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3131,7 +3190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3142,7 +3201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3153,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3164,7 +3223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3175,7 +3234,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3186,7 +3245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3197,7 +3256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3208,12 +3267,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>123</v>
       </c>
@@ -3225,19 +3284,19 @@
       </c>
       <c r="E17" s="6">
         <f>+D17*H17</f>
-        <v>1446.277</v>
+        <v>1500.1353709999999</v>
       </c>
       <c r="F17" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>455.93000000000006</v>
+        <f>+[15]Main!$J$5-[15]Main!$J$6</f>
+        <v>383</v>
       </c>
       <c r="G17" s="6">
         <f>+E17-F17</f>
-        <v>990.34699999999998</v>
+        <v>1117.1353709999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[14]Main!$J$3</f>
-        <v>206.61099999999999</v>
+        <f>+[15]Main!$J$3</f>
+        <v>214.30505299999999</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>130</v>
@@ -3246,7 +3305,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>124</v>
       </c>
@@ -3261,7 +3320,7 @@
         <v>243.94435382999998</v>
       </c>
       <c r="F18" s="6">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
         <v>237.672</v>
       </c>
       <c r="G18" s="6">
@@ -3269,7 +3328,7 @@
         <v>6.2723538299999859</v>
       </c>
       <c r="H18" s="6">
-        <f>+[15]Main!$L$3</f>
+        <f>+[16]Main!$L$3</f>
         <v>280.39580899999999</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -3279,7 +3338,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>127</v>
       </c>
@@ -3287,7 +3346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -3295,7 +3354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>132</v>
       </c>
@@ -3306,12 +3365,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -3319,7 +3378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -3327,7 +3386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -3350,12 +3409,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>195</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6B74C-D9CB-475E-87B3-767974132C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C64BA-C1D9-4643-8F14-AA305B632F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-30570" yWindow="6585" windowWidth="26610" windowHeight="13410" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>Q421</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
     <t>ARM Holdings</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>LAES</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -898,26 +898,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>260.01482900000002</v>
+          <cell r="J3">
+            <v>214.30505299999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>199.27</v>
+          <cell r="J5">
+            <v>383</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>46.082999999999998</v>
+          <cell r="J6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -932,44 +934,34 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="iPhone"/>
+      <sheetName val="Gates"/>
+      <sheetName val="Bubbles"/>
+      <sheetName val="TOPS"/>
+      <sheetName val="DNA"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>15847</v>
+          <cell r="L3">
+            <v>280.39580899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>166333</v>
+          <cell r="L5">
+            <v>250.98</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>109615</v>
+          <cell r="L6">
+            <v>13.308</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="36">
-          <cell r="BU36">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BU37">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BU39">
-            <v>162.69801432678935</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -983,29 +975,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Sheet1"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>214.30505299999999</v>
+          <cell r="L3">
+            <v>260.01482900000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>383</v>
+          <cell r="L5">
+            <v>199.27</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>0</v>
+          <cell r="L6">
+            <v>46.082999999999998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1020,27 +1010,43 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Bubbles"/>
+      <sheetName val="iPhone"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>280.39580899999999</v>
+          <cell r="O3">
+            <v>15151</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>250.98</v>
+          <cell r="O5">
+            <v>141368</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>13.308</v>
+          <cell r="O6">
+            <v>96799</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="36">
+          <cell r="CE36">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="CE37">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="CE39">
+            <v>166.88839045122288</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1282,10 +1288,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1624,11 +1630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1712,7 @@
         <v>24774</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="10">
         <v>45651</v>
@@ -1745,7 +1751,7 @@
         <v>25931</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="10">
         <v>45652</v>
@@ -1819,7 +1825,7 @@
         <v>4670.5760829999999</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="10">
         <v>45581</v>
@@ -1866,7 +1872,7 @@
         <v>393.5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="10">
         <v>45581</v>
@@ -1941,7 +1947,7 @@
         <v>1114</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="10">
         <v>45581</v>
@@ -1994,11 +2000,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>20.91</v>
+        <v>19.91</v>
       </c>
       <c r="E12" s="6">
         <f>+D12*H12</f>
-        <v>89222.97</v>
+        <v>84955.97</v>
       </c>
       <c r="F12" s="6">
         <f>+[8]Main!$L$5-[8]Main!$L$6</f>
@@ -2006,14 +2012,14 @@
       </c>
       <c r="G12" s="6">
         <f>+E12-F12</f>
-        <v>107154.97</v>
+        <v>102887.97</v>
       </c>
       <c r="H12" s="6">
         <f>+[8]Main!$L$3</f>
         <v>4267</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" s="10">
         <v>45507</v>
@@ -2035,10 +2041,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2093,7 +2099,7 @@
         <v>1108.841326</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="10">
         <v>45554</v>
@@ -2104,10 +2110,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
         <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
       </c>
       <c r="D18" s="4">
         <v>20.65</v>
@@ -2129,7 +2135,7 @@
         <v>640</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="10">
         <v>45560</v>
@@ -2302,10 +2308,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
       </c>
       <c r="D34" s="4">
         <v>112</v>
@@ -2327,7 +2333,7 @@
         <v>135.42215899999999</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J34" s="10">
         <v>45561</v>
@@ -2335,10 +2341,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
       </c>
       <c r="D35" s="4">
         <v>13</v>
@@ -2360,7 +2366,7 @@
         <v>811.04812700000002</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J35" s="10">
         <v>45561</v>
@@ -2405,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2420,7 +2426,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2457,7 +2463,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -2475,10 +2481,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2">
         <v>51</v>
@@ -2488,7 +2494,7 @@
         <v>10929.557702999999</v>
       </c>
       <c r="F4" s="13">
-        <f>+[15]Main!$J$5-[15]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>383</v>
       </c>
       <c r="G4" s="13">
@@ -2496,11 +2502,11 @@
         <v>10546.557702999999</v>
       </c>
       <c r="H4" s="13">
-        <f>+[15]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>214.30505299999999</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="5">
         <v>45664</v>
@@ -2508,10 +2514,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>19.47</v>
@@ -2521,7 +2527,7 @@
         <v>5459.3064012299992</v>
       </c>
       <c r="F5" s="13">
-        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>237.672</v>
       </c>
       <c r="G5" s="13">
@@ -2529,11 +2535,11 @@
         <v>5221.6344012299996</v>
       </c>
       <c r="H5" s="13">
-        <f>+[16]Main!$L$3</f>
+        <f>+[14]Main!$L$3</f>
         <v>280.39580899999999</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5" s="5">
         <v>45664</v>
@@ -2541,10 +2547,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
       </c>
       <c r="D6" s="2">
         <v>18</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2">
         <v>9.3000000000000007</v>
@@ -2568,7 +2574,7 @@
         <v>2418.1379097000004</v>
       </c>
       <c r="F7" s="13">
-        <f>+[13]Main!$L$5-[13]Main!$L$6</f>
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>153.18700000000001</v>
       </c>
       <c r="G7" s="13">
@@ -2576,11 +2582,11 @@
         <v>2264.9509097000005</v>
       </c>
       <c r="H7" s="13">
-        <f>+[13]Main!$L$3</f>
+        <f>+[15]Main!$L$3</f>
         <v>260.01482900000002</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J7" s="5">
         <v>45663</v>
@@ -2588,10 +2594,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>197</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -2599,255 +2605,255 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
         <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3004,11 +3010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3027,7 +3033,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3088,44 +3094,44 @@
         <v>17</v>
       </c>
       <c r="D3" s="4">
-        <v>165.02</v>
+        <v>245</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2615071.94</v>
+        <v>3711995</v>
       </c>
       <c r="F3" s="6">
-        <f>+[14]Main!$O$5-[14]Main!$O$6</f>
-        <v>56718</v>
+        <f>+[16]Main!$O$5-[16]Main!$O$6</f>
+        <v>44569</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2558353.94</v>
+        <v>3667426</v>
       </c>
       <c r="H3" s="6">
-        <f>+[14]Main!$O$3</f>
-        <v>15847</v>
+        <f>+[16]Main!$O$3</f>
+        <v>15151</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="J3" s="5">
-        <v>45050</v>
+        <v>45687</v>
       </c>
       <c r="K3" s="2">
-        <f>[14]Model!$BU$39</f>
-        <v>162.69801432678935</v>
+        <f>[16]Model!$CE$39</f>
+        <v>166.88839045122288</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>-1.4070934875837215E-2</v>
+        <v>-0.31882289611745762</v>
       </c>
       <c r="M3" s="8">
-        <f>+[14]Model!$BU$36</f>
+        <f>+[16]Model!$CE$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[14]Model!$BU$37</f>
+        <f>+[16]Model!$CE$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -3274,32 +3280,32 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
         <f>+D17*H17</f>
-        <v>1500.1353709999999</v>
+        <v>8357.8970669999999</v>
       </c>
       <c r="F17" s="6">
-        <f>+[15]Main!$J$5-[15]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>383</v>
       </c>
       <c r="G17" s="6">
         <f>+E17-F17</f>
-        <v>1117.1353709999999</v>
+        <v>7974.8970669999999</v>
       </c>
       <c r="H17" s="6">
-        <f>+[15]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>214.30505299999999</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="5">
         <v>45534</v>
@@ -3307,10 +3313,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="3">
         <v>0.87</v>
@@ -3320,7 +3326,7 @@
         <v>243.94435382999998</v>
       </c>
       <c r="F18" s="6">
-        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
+        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>237.672</v>
       </c>
       <c r="G18" s="6">
@@ -3328,11 +3334,11 @@
         <v>6.2723538299999859</v>
       </c>
       <c r="H18" s="6">
-        <f>+[16]Main!$L$3</f>
+        <f>+[14]Main!$L$3</f>
         <v>280.39580899999999</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="5">
         <v>45534</v>
@@ -3340,26 +3346,26 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
         <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="3">
         <v>101.64</v>
@@ -3416,7 +3422,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>32.68</v>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C64BA-C1D9-4643-8F14-AA305B632F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1E90A-790F-4B2B-A174-AA708746BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30570" yWindow="6585" windowWidth="26610" windowHeight="13410" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1047,7 +1047,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1288,10 +1288,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1637,20 +1637,20 @@
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2372,17 +2372,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2411,25 +2411,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2559,19 +2559,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>125</v>
       </c>
       <c r="D7" s="2">
-        <v>9.3000000000000007</v>
+        <v>6.45</v>
       </c>
       <c r="E7" s="13">
         <f>+D7*H7</f>
-        <v>2418.1379097000004</v>
+        <v>1677.0956470500003</v>
       </c>
       <c r="F7" s="13">
         <f>+[15]Main!$L$5-[15]Main!$L$6</f>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G7" s="13">
         <f>+E7-F7</f>
-        <v>2264.9509097000005</v>
+        <v>1523.9086470500001</v>
       </c>
       <c r="H7" s="13">
         <f>+[15]Main!$L$3</f>
@@ -2592,7 +2592,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2603,122 +2603,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2726,132 +2726,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2861,6 +2861,7 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{48212D98-F0E3-4509-96A5-6BB9683E0B25}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{F1FD0F3E-AA09-4EA5-ABFA-C8FDF989BBD7}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{31AE1ADD-F109-4DDC-933D-81406D33D7B1}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{222626AB-8AD1-4B96-B080-994B3561591D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2877,13 +2878,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3010,33 +3011,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3273,12 +3274,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>122</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>123</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>126</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>128</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>131</v>
       </c>
@@ -3371,12 +3372,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -3415,12 +3416,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1E90A-790F-4B2B-A174-AA708746BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B70F4-5D06-4353-BE93-6A9B016BCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Semis</t>
   </si>
 </sst>
 </file>
@@ -683,12 +686,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -704,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -731,6 +740,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -995,7 +1005,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1065,19 +1075,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="J4">
-            <v>25931</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>67370</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>30421</v>
+        <row r="3">
+          <cell r="J3">
+            <v>4670.5760829999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>11864</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>73468</v>
           </cell>
         </row>
       </sheetData>
@@ -1099,19 +1109,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>4670.5760829999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>11864</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>73468</v>
+        <row r="4">
+          <cell r="J4">
+            <v>25931</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>67370</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>30421</v>
           </cell>
         </row>
       </sheetData>
@@ -1631,10 +1641,10 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1693,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1722,117 +1732,117 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="E4" s="6">
-        <f>+D4*H4/5</f>
-        <v>1068357.2</v>
+        <f>+D4*H4</f>
+        <v>719268.71678200003</v>
       </c>
       <c r="F4" s="6">
-        <f>+[2]Main!$J$7-[2]Main!$J$8</f>
-        <v>36949</v>
+        <f>+[2]Main!$J$5-[2]Main!$J$6</f>
+        <v>-61604</v>
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>1031408.2</v>
+        <v>780872.71678200003</v>
       </c>
       <c r="H4" s="6">
-        <f>+[2]Main!$J$4</f>
-        <v>25931</v>
+        <f>+[2]Main!$J$3</f>
+        <v>4670.5760829999999</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="J4" s="10">
-        <v>45652</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>1085</v>
+        <v>206</v>
       </c>
       <c r="E5" s="6">
-        <f>+D5*H5/FX!C2</f>
-        <v>860928.24357405142</v>
+        <f>+D5*H5/5</f>
+        <v>1068357.2</v>
       </c>
       <c r="F5" s="6">
-        <f>+[2]Main!$J$7-[2]Main!$J$8</f>
+        <f>+[3]Main!$J$7-[3]Main!$J$8</f>
         <v>36949</v>
       </c>
       <c r="G5" s="6">
         <f>+E5-F5</f>
-        <v>823979.24357405142</v>
+        <v>1031408.2</v>
       </c>
       <c r="H5" s="6">
-        <f>+[2]Main!$J$4</f>
+        <f>+[3]Main!$J$4</f>
         <v>25931</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <f>+I4</f>
-        <v>Q324</v>
+      <c r="I5" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J5" s="10">
-        <f>+J4</f>
         <v>45652</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>154</v>
+        <v>1085</v>
       </c>
       <c r="E6" s="6">
-        <f>+D6*H6</f>
-        <v>719268.71678200003</v>
+        <f>+D6*H6/FX!C2</f>
+        <v>860928.24357405142</v>
       </c>
       <c r="F6" s="6">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
-        <v>-61604</v>
+        <f>+[3]Main!$J$7-[3]Main!$J$8</f>
+        <v>36949</v>
       </c>
       <c r="G6" s="6">
         <f>+E6-F6</f>
-        <v>780872.71678200003</v>
+        <v>823979.24357405142</v>
       </c>
       <c r="H6" s="6">
-        <f>+[3]Main!$J$3</f>
-        <v>4670.5760829999999</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>121</v>
+        <f>+[3]Main!$J$4</f>
+        <v>25931</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>+I5</f>
+        <v>Q324</v>
       </c>
       <c r="J6" s="10">
-        <v>45581</v>
+        <f>+J5</f>
+        <v>45652</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -1843,7 +1853,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1879,7 +1889,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1918,7 +1928,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1954,7 +1964,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1990,7 +2000,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2026,7 +2036,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
@@ -2037,7 +2047,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
@@ -2048,7 +2058,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -2070,7 +2080,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2142,7 +2152,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
@@ -2153,7 +2163,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
@@ -2175,7 +2185,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
@@ -2393,9 +2403,9 @@
     <hyperlink ref="B11" r:id="rId2" xr:uid="{89BFBE39-15FE-4D88-BD35-419556A195F8}"/>
     <hyperlink ref="B12" r:id="rId3" xr:uid="{ACBF0F19-D83E-41D4-B3AD-01439A0CCE2D}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{0B4AADBB-7802-4155-9477-7B8867856D77}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{D5C26AF1-ADC4-4E03-9D8B-12F3C24C324B}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D5C26AF1-ADC4-4E03-9D8B-12F3C24C324B}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{DD4F0CC9-D485-4053-9B41-DE6F39511946}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
     <hyperlink ref="B34" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
@@ -2411,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2871,11 +2881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2917,7 +2927,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2934,25 +2944,25 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2960,10 +2970,10 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,10 +2981,10 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3015,12 +3025,12 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="3"/>
@@ -3033,8 +3043,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>130</v>
+      <c r="A1" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3085,7 +3095,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3143,7 +3153,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
@@ -3198,7 +3208,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -3403,6 +3413,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
     <hyperlink ref="B21" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B70F4-5D06-4353-BE93-6A9B016BCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326E114-8A91-4EA5-AE29-56F1859F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -2881,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3021,11 +3021,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3230,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326E114-8A91-4EA5-AE29-56F1859F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B9179-1838-4E51-B667-8E1848B4E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -1640,11 +1640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1703,11 +1703,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>139.74</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3461918.7600000002</v>
+        <v>3245394</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3431893.7600000002</v>
+        <v>3215369</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
@@ -3021,11 +3021,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B9179-1838-4E51-B667-8E1848B4E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D075A4-E7DF-451C-911C-F6769ADF6199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="16410" yWindow="1640" windowWidth="21490" windowHeight="10580" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -770,7 +770,8 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Quarterly Earnings Preview"/>
+      <sheetName val="Q424 Quarterly Earnings Preview"/>
+      <sheetName val="Q1 Quarterly Earnings Preview"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -792,6 +793,7 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1640,11 +1642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2176,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D075A4-E7DF-451C-911C-F6769ADF6199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D65A9-2266-4E4E-BD18-A70B8B9A1EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="1640" windowWidth="21490" windowHeight="10580" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>Semis</t>
+  </si>
+  <si>
+    <t>Motorola Solutions</t>
   </si>
 </sst>
 </file>
@@ -1642,27 +1645,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1727,13 +1730,13 @@
         <v>193</v>
       </c>
       <c r="J3" s="10">
-        <v>45651</v>
+        <v>45714</v>
       </c>
       <c r="K3">
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2070,8 +2073,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
@@ -2081,7 +2084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2117,8 +2120,8 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2153,7 +2156,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2197,8 +2200,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
@@ -2208,8 +2211,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
@@ -2219,8 +2222,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
@@ -2230,7 +2233,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2307,8 +2310,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
@@ -2318,7 +2321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2384,17 +2387,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>108</v>
       </c>
@@ -2430,18 +2433,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2615,122 +2618,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2738,132 +2741,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2890,13 +2893,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3021,35 +3024,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3165,8 +3168,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -3176,8 +3179,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -3187,7 +3190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3220,8 +3223,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -3231,7 +3234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3242,179 +3245,190 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>39</v>
       </c>
-      <c r="E17" s="6">
-        <f>+D17*H17</f>
+      <c r="E18" s="6">
+        <f>+D18*H18</f>
         <v>8357.8970669999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>383</v>
       </c>
-      <c r="G17" s="6">
-        <f>+E17-F17</f>
+      <c r="G18" s="6">
+        <f>+E18-F18</f>
         <v>7974.8970669999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f>+[13]Main!$J$3</f>
         <v>214.30505299999999</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>0.87</v>
       </c>
-      <c r="E18" s="6">
-        <f>+D18*H18</f>
+      <c r="E19" s="6">
+        <f>+D19*H19</f>
         <v>243.94435382999998</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>237.672</v>
       </c>
-      <c r="G18" s="6">
-        <f>+E18-F18</f>
+      <c r="G19" s="6">
+        <f>+E19-F19</f>
         <v>6.2723538299999859</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <f>+[14]Main!$L$3</f>
         <v>280.39580899999999</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3429,12 +3443,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D65A9-2266-4E4E-BD18-A70B8B9A1EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF55C9AC-35F4-460B-B1A4-6DD86FC2B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -657,6 +657,30 @@
   </si>
   <si>
     <t>Motorola Solutions</t>
+  </si>
+  <si>
+    <t>Advantest</t>
+  </si>
+  <si>
+    <t>6857 JP</t>
+  </si>
+  <si>
+    <t>Hygon Information Technology</t>
+  </si>
+  <si>
+    <t>688041 CH</t>
+  </si>
+  <si>
+    <t>Delta Electronics Thai</t>
+  </si>
+  <si>
+    <t>DELTA TB</t>
+  </si>
+  <si>
+    <t>Garmin</t>
+  </si>
+  <si>
+    <t>GRMN</t>
   </si>
 </sst>
 </file>
@@ -1643,13 +1667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K40"/>
+  <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2234,25 +2258,25 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2260,10 +2284,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2271,21 +2295,21 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2293,10 +2317,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2304,101 +2328,123 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
         <v>109</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D36" s="4">
         <v>112</v>
       </c>
-      <c r="E34" s="6">
-        <f>+D34*H34</f>
+      <c r="E36" s="6">
+        <f>+D36*H36</f>
         <v>15167.281808</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F36" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G34" s="6">
-        <f>+E34-F34</f>
+      <c r="G36" s="6">
+        <f>+E36-F36</f>
         <v>14720.309808</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H36" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J36" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D37" s="4">
         <v>13</v>
       </c>
-      <c r="E35" s="6">
-        <f>+D35*H35</f>
+      <c r="E37" s="6">
+        <f>+D37*H37</f>
         <v>10543.625651</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F37" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G35" s="6">
-        <f>+E35-F35</f>
+      <c r="G37" s="6">
+        <f>+E37-F37</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J37" s="10">
         <v>45561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2413,8 +2459,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B34" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B35" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B36" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B37" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>
@@ -3024,13 +3070,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3279,156 +3325,178 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>39</v>
       </c>
-      <c r="E18" s="6">
-        <f>+D18*H18</f>
+      <c r="E20" s="6">
+        <f>+D20*H20</f>
         <v>8357.8970669999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F20" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>383</v>
       </c>
-      <c r="G18" s="6">
-        <f>+E18-F18</f>
+      <c r="G20" s="6">
+        <f>+E20-F20</f>
         <v>7974.8970669999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H20" s="6">
         <f>+[13]Main!$J$3</f>
         <v>214.30505299999999</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J20" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D21" s="3">
         <v>0.87</v>
       </c>
-      <c r="E19" s="6">
-        <f>+D19*H19</f>
+      <c r="E21" s="6">
+        <f>+D21*H21</f>
         <v>243.94435382999998</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F21" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>237.672</v>
       </c>
-      <c r="G19" s="6">
-        <f>+E19-F19</f>
+      <c r="G21" s="6">
+        <f>+E21-F21</f>
         <v>6.2723538299999859</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H21" s="6">
         <f>+[14]Main!$L$3</f>
         <v>280.39580899999999</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J21" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF55C9AC-35F4-460B-B1A4-6DD86FC2B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D70D2-5110-45C3-B39F-9D41E19FF32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="13270" yWindow="4100" windowWidth="21390" windowHeight="12960" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -982,25 +982,25 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>280.39580899999999</v>
+            <v>216.39224200000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>250.98</v>
+            <v>383</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>13.308</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1676,20 +1676,20 @@
       <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>135</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
@@ -2433,17 +2433,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>108</v>
       </c>
@@ -2472,25 +2472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2581,23 +2581,23 @@
         <v>127</v>
       </c>
       <c r="D5">
-        <v>19.47</v>
+        <v>7.95</v>
       </c>
       <c r="E5" s="13">
         <f>+D5*H5</f>
-        <v>5459.3064012299992</v>
+        <v>1720.3183239000002</v>
       </c>
       <c r="F5" s="13">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>237.672</v>
+        <v>383</v>
       </c>
       <c r="G5" s="13">
         <f>E5-F5</f>
-        <v>5221.6344012299996</v>
+        <v>1337.3183239000002</v>
       </c>
       <c r="H5" s="13">
         <f>+[14]Main!$L$3</f>
-        <v>280.39580899999999</v>
+        <v>216.39224200000001</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>193</v>
@@ -2606,7 +2606,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2664,122 +2664,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2787,132 +2787,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2939,13 +2939,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3072,33 +3072,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3368,12 +3368,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>123</v>
       </c>
@@ -3418,19 +3418,19 @@
       </c>
       <c r="E21" s="6">
         <f>+D21*H21</f>
-        <v>243.94435382999998</v>
+        <v>188.26125054000002</v>
       </c>
       <c r="F21" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>237.672</v>
+        <v>383</v>
       </c>
       <c r="G21" s="6">
         <f>+E21-F21</f>
-        <v>6.2723538299999859</v>
+        <v>-194.73874945999998</v>
       </c>
       <c r="H21" s="6">
         <f>+[14]Main!$L$3</f>
-        <v>280.39580899999999</v>
+        <v>216.39224200000001</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>121</v>
@@ -3439,7 +3439,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>126</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>128</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>131</v>
       </c>
@@ -3466,12 +3466,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>64</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -3511,12 +3511,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D70D2-5110-45C3-B39F-9D41E19FF32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7660677-655C-427C-9DCF-08C2DC6426B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13270" yWindow="4100" windowWidth="21390" windowHeight="12960" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-34980" yWindow="2550" windowWidth="24160" windowHeight="16150" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -982,12 +982,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>216.39224200000001</v>
+            <v>283.54687100000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>383</v>
+            <v>217</v>
           </cell>
         </row>
         <row r="6">
@@ -996,11 +996,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1120,7 +1120,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1669,11 +1669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1793,7 @@
         <v>121</v>
       </c>
       <c r="J4" s="10">
-        <v>45581</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969B36B-DEE6-4982-80A3-7EB4D6794539}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2585,19 +2585,19 @@
       </c>
       <c r="E5" s="13">
         <f>+D5*H5</f>
-        <v>1720.3183239000002</v>
+        <v>2254.1976244500001</v>
       </c>
       <c r="F5" s="13">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="G5" s="13">
         <f>E5-F5</f>
-        <v>1337.3183239000002</v>
+        <v>2037.1976244500001</v>
       </c>
       <c r="H5" s="13">
         <f>+[14]Main!$L$3</f>
-        <v>216.39224200000001</v>
+        <v>283.54687100000001</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>193</v>
@@ -3418,19 +3418,19 @@
       </c>
       <c r="E21" s="6">
         <f>+D21*H21</f>
-        <v>188.26125054000002</v>
+        <v>246.68577777000002</v>
       </c>
       <c r="F21" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="G21" s="6">
         <f>+E21-F21</f>
-        <v>-194.73874945999998</v>
+        <v>29.685777770000016</v>
       </c>
       <c r="H21" s="6">
         <f>+[14]Main!$L$3</f>
-        <v>216.39224200000001</v>
+        <v>283.54687100000001</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>121</v>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7660677-655C-427C-9DCF-08C2DC6426B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E64D7D1-8275-4BF6-AC67-8537615B1995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34980" yWindow="2550" windowWidth="24160" windowHeight="16150" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>GRMN</t>
+  </si>
+  <si>
+    <t>Cambricon</t>
+  </si>
+  <si>
+    <t>688256 CH</t>
+  </si>
+  <si>
+    <t>Monolithic</t>
+  </si>
+  <si>
+    <t>MPWR</t>
   </si>
 </sst>
 </file>
@@ -943,12 +955,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>214.30505299999999</v>
+            <v>232</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>383</v>
+            <v>750</v>
           </cell>
         </row>
         <row r="6">
@@ -1120,7 +1132,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1208,17 +1220,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>1618</v>
+            <v>1634</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>5855</v>
+            <v>5281</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>2467</v>
+            <v>1721</v>
           </cell>
         </row>
       </sheetData>
@@ -1667,29 +1679,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1932,19 +1944,19 @@
       </c>
       <c r="E9" s="6">
         <f>+D9*H9</f>
-        <v>231374</v>
+        <v>233662</v>
       </c>
       <c r="F9" s="6">
         <f>+[5]Main!$M$5-[5]Main!$M$6</f>
-        <v>3388</v>
+        <v>3560</v>
       </c>
       <c r="G9" s="6">
         <f>+E9-F9</f>
-        <v>227986</v>
+        <v>230102</v>
       </c>
       <c r="H9" s="6">
         <f>+[5]Main!$M$3</f>
-        <v>1618</v>
+        <v>1634</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>118</v>
@@ -1956,7 +1968,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2279,172 +2291,194 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D38" s="4">
         <v>112</v>
       </c>
-      <c r="E36" s="6">
-        <f>+D36*H36</f>
+      <c r="E38" s="6">
+        <f>+D38*H38</f>
         <v>15167.281808</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G36" s="6">
-        <f>+E36-F36</f>
+      <c r="G38" s="6">
+        <f>+E38-F38</f>
         <v>14720.309808</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H38" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J38" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D39" s="4">
         <v>13</v>
       </c>
-      <c r="E37" s="6">
-        <f>+D37*H37</f>
+      <c r="E39" s="6">
+        <f>+D39*H39</f>
         <v>10543.625651</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F39" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G37" s="6">
-        <f>+E37-F37</f>
+      <c r="G39" s="6">
+        <f>+E39-F39</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H39" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J39" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2459,8 +2493,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B36" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B38" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B39" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>
@@ -2479,18 +2513,18 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2540,7 +2574,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2552,19 +2586,19 @@
       </c>
       <c r="E4" s="13">
         <f>+D4*H4</f>
-        <v>10929.557702999999</v>
+        <v>11832</v>
       </c>
       <c r="F4" s="13">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
-        <v>383</v>
+        <v>750</v>
       </c>
       <c r="G4" s="13">
         <f>+E4-F4</f>
-        <v>10546.557702999999</v>
+        <v>11082</v>
       </c>
       <c r="H4" s="13">
         <f>+[13]Main!$J$3</f>
-        <v>214.30505299999999</v>
+        <v>232</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>193</v>
@@ -2573,7 +2607,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2606,7 +2640,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2620,7 +2654,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2653,7 +2687,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2664,122 +2698,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2787,132 +2821,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2939,13 +2973,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3011,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +3028,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3005,7 +3039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3016,7 +3050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3027,7 +3061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3049,7 +3083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3076,29 +3110,29 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3203,7 +3237,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3214,7 +3248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3225,7 +3259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3236,7 +3270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3247,8 +3281,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
@@ -3258,7 +3292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3269,7 +3303,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3291,7 +3325,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3302,7 +3336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +3369,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3346,7 +3380,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3357,7 +3391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3368,12 +3402,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
@@ -3385,19 +3419,19 @@
       </c>
       <c r="E20" s="6">
         <f>+D20*H20</f>
-        <v>8357.8970669999999</v>
+        <v>9048</v>
       </c>
       <c r="F20" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
-        <v>383</v>
+        <v>750</v>
       </c>
       <c r="G20" s="6">
         <f>+E20-F20</f>
-        <v>7974.8970669999999</v>
+        <v>8298</v>
       </c>
       <c r="H20" s="6">
         <f>+[13]Main!$J$3</f>
-        <v>214.30505299999999</v>
+        <v>232</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>129</v>
@@ -3406,7 +3440,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>123</v>
       </c>
@@ -3439,7 +3473,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>126</v>
       </c>
@@ -3447,7 +3481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>128</v>
       </c>
@@ -3455,7 +3489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>131</v>
       </c>
@@ -3466,12 +3500,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3513,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>64</v>
       </c>
@@ -3487,7 +3521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -3511,12 +3545,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E64D7D1-8275-4BF6-AC67-8537615B1995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B3DEB-2CBE-4D36-95C6-9AD9F480824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>MPWR</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>6146 JP</t>
   </si>
 </sst>
 </file>
@@ -1679,13 +1685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K44"/>
+  <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2358,127 +2364,138 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>112</v>
       </c>
-      <c r="E38" s="6">
-        <f>+D38*H38</f>
+      <c r="E39" s="6">
+        <f>+D39*H39</f>
         <v>15167.281808</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G38" s="6">
-        <f>+E38-F38</f>
+      <c r="G39" s="6">
+        <f>+E39-F39</f>
         <v>14720.309808</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="4">
         <v>13</v>
       </c>
-      <c r="E39" s="6">
-        <f>+D39*H39</f>
+      <c r="E40" s="6">
+        <f>+D40*H40</f>
         <v>10543.625651</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G39" s="6">
-        <f>+E39-F39</f>
+      <c r="G40" s="6">
+        <f>+E40-F40</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>45561</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2493,8 +2510,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B38" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B39" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B39" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B40" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B3DEB-2CBE-4D36-95C6-9AD9F480824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C73C3D-306E-484C-AD8A-326C851B07E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>6146 JP</t>
+  </si>
+  <si>
+    <t>Delta Electronics</t>
+  </si>
+  <si>
+    <t>2308 TT</t>
   </si>
 </sst>
 </file>
@@ -1687,27 +1693,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>135</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>137</v>
       </c>
@@ -2484,17 +2490,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>108</v>
       </c>
@@ -2530,18 +2536,18 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2591,7 +2597,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2715,122 +2721,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2838,132 +2844,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2990,13 +2996,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3121,35 +3127,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3386,169 +3392,183 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>206</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>39</v>
       </c>
-      <c r="E20" s="6">
-        <f>+D20*H20</f>
+      <c r="E21" s="6">
+        <f>+D21*H21</f>
         <v>9048</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>750</v>
       </c>
-      <c r="G20" s="6">
-        <f>+E20-F20</f>
+      <c r="G21" s="6">
+        <f>+E21-F21</f>
         <v>8298</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <f>+[13]Main!$J$3</f>
         <v>232</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="E21" s="6">
-        <f>+D21*H21</f>
-        <v>246.68577777000002</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D22" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="E22" s="6">
+        <f>+D22*H22</f>
+        <v>2412.9838722099998</v>
+      </c>
+      <c r="F22" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G21" s="6">
-        <f>+E21-F21</f>
-        <v>29.685777770000016</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G22" s="6">
+        <f>+E22-F22</f>
+        <v>2195.9838722099998</v>
+      </c>
+      <c r="H22" s="6">
         <f>+[14]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
+    <hyperlink ref="B22" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3562,12 +3582,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C73C3D-306E-484C-AD8A-326C851B07E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F8616-BF41-4942-A31F-3CDBFAF11140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>2308 TT</t>
+  </si>
+  <si>
+    <t>Quanta</t>
+  </si>
+  <si>
+    <t>2382 TT</t>
   </si>
 </sst>
 </file>
@@ -1700,20 +1706,20 @@
       <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>135</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>137</v>
       </c>
@@ -2490,17 +2496,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>108</v>
       </c>
@@ -2536,18 +2542,18 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2597,7 +2603,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2721,122 +2727,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2844,132 +2850,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -2996,13 +3002,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3127,35 +3133,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3260,18 +3266,18 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3414,161 +3420,173 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>101</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>39</v>
       </c>
-      <c r="E21" s="6">
-        <f>+D21*H21</f>
+      <c r="E22" s="6">
+        <f>+D22*H22</f>
         <v>9048</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>750</v>
       </c>
-      <c r="G21" s="6">
-        <f>+E21-F21</f>
+      <c r="G22" s="6">
+        <f>+E22-F22</f>
         <v>8298</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <f>+[13]Main!$J$3</f>
         <v>232</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>8.51</v>
       </c>
-      <c r="E22" s="6">
-        <f>+D22*H22</f>
+      <c r="E23" s="6">
+        <f>+D23*H23</f>
         <v>2412.9838722099998</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G22" s="6">
-        <f>+E22-F22</f>
+      <c r="G23" s="6">
+        <f>+E23-F23</f>
         <v>2195.9838722099998</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <f>+[14]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B25" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
-    <hyperlink ref="B22" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
-    <hyperlink ref="B23" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
-    <hyperlink ref="B24" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3582,12 +3600,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>194</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F8616-BF41-4942-A31F-3CDBFAF11140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB44BC-C65E-4196-8463-567A67C4E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,13 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="CNY">FX!$B$4</definedName>
+    <definedName name="KRW">FX!$C$3</definedName>
+    <definedName name="None">FX!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,8 +62,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -711,14 +739,22 @@
   </si>
   <si>
     <t>2382 TT</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="[$₩-412]#,##0"/>
+    <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -770,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -798,6 +834,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,11 +1154,45 @@
         </row>
         <row r="39">
           <cell r="CE39">
-            <v>166.88839045122288</v>
+            <v>158.43568788298469</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>6758.9192499999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>112651.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>19330.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1700,10 +1776,10 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2615,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2999,7 +3075,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3135,11 +3211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3219,11 +3295,11 @@
         <v>17</v>
       </c>
       <c r="D3" s="4">
-        <v>245</v>
+        <v>205.51</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3711995</v>
+        <v>3113682.01</v>
       </c>
       <c r="F3" s="6">
         <f>+[16]Main!$O$5-[16]Main!$O$6</f>
@@ -3231,7 +3307,7 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3667426</v>
+        <v>3069113.01</v>
       </c>
       <c r="H3" s="6">
         <f>+[16]Main!$O$3</f>
@@ -3241,15 +3317,15 @@
         <v>197</v>
       </c>
       <c r="J3" s="5">
-        <v>45687</v>
+        <v>45750</v>
       </c>
       <c r="K3" s="2">
         <f>[16]Model!$CE$39</f>
-        <v>166.88839045122288</v>
+        <v>158.43568788298469</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>-0.31882289611745762</v>
+        <v>-0.22906093191093035</v>
       </c>
       <c r="M3" s="8">
         <f>+[16]Model!$CE$36</f>
@@ -3276,6 +3352,31 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="15">
+        <v>57600</v>
+      </c>
+      <c r="E4" s="6" cm="1">
+        <f t="array" ref="E4">+D4*H4/KRW</f>
+        <v>268168.58880661271</v>
+      </c>
+      <c r="F4" s="6">
+        <f>([17]Main!$K$5-[17]Main!$K$6)/KRW</f>
+        <v>64.28214224212158</v>
+      </c>
+      <c r="G4" s="6">
+        <f>+E4-F4</f>
+        <v>268104.30666437058</v>
+      </c>
+      <c r="H4" s="6">
+        <f>+[17]Main!$K$3</f>
+        <v>6758.9192499999999</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45750</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -3286,6 +3387,20 @@
       </c>
       <c r="C5" t="s">
         <v>52</v>
+      </c>
+      <c r="D5" s="16">
+        <v>73.36</v>
+      </c>
+      <c r="E5" s="6">
+        <f>+D5*H5/CNY</f>
+        <v>79962.400000000009</v>
+      </c>
+      <c r="G5" s="6">
+        <f>+E5-F5</f>
+        <v>79962.400000000009</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7630</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3594,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72FDEE-60E0-4B9B-AACF-AB184FD947A1}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3613,6 +3728,22 @@
         <v>32.68</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1451.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB44BC-C65E-4196-8463-567A67C4E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BFBFE-DFFF-438A-ACA9-BA72607C1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="230">
   <si>
     <t>Name</t>
   </si>
@@ -745,6 +745,36 @@
   </si>
   <si>
     <t>CNY</t>
+  </si>
+  <si>
+    <t>Renesas</t>
+  </si>
+  <si>
+    <t>6723 JP</t>
+  </si>
+  <si>
+    <t>Naura</t>
+  </si>
+  <si>
+    <t>002371 CH</t>
+  </si>
+  <si>
+    <t>ASM International</t>
+  </si>
+  <si>
+    <t>ASM NA</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>6752 JP</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>HP Enterprise</t>
   </si>
 </sst>
 </file>
@@ -1773,13 +1803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K45"/>
+  <dimension ref="A2:K48"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2463,14 +2493,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2478,112 +2508,145 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D42" s="4">
         <v>112</v>
       </c>
-      <c r="E39" s="6">
-        <f>+D39*H39</f>
+      <c r="E42" s="6">
+        <f>+D42*H42</f>
         <v>15167.281808</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F42" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G39" s="6">
-        <f>+E39-F39</f>
+      <c r="G42" s="6">
+        <f>+E42-F42</f>
         <v>14720.309808</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H42" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J42" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D43" s="4">
         <v>13</v>
       </c>
-      <c r="E40" s="6">
-        <f>+D40*H40</f>
+      <c r="E43" s="6">
+        <f>+D43*H43</f>
         <v>10543.625651</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F43" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G40" s="6">
-        <f>+E40-F40</f>
+      <c r="G43" s="6">
+        <f>+E43-F43</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H43" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J43" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2598,8 +2661,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B39" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B40" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B42" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B43" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>
@@ -3075,7 +3138,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3178,7 +3241,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
@@ -3209,13 +3272,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3463,10 +3526,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3474,32 +3537,32 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>199</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3507,10 +3570,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3518,10 +3581,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3529,10 +3592,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -3540,167 +3603,189 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>216</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D24" s="4">
         <v>39</v>
       </c>
-      <c r="E22" s="6">
-        <f>+D22*H22</f>
+      <c r="E24" s="6">
+        <f>+D24*H24</f>
         <v>9048</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F24" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>750</v>
       </c>
-      <c r="G22" s="6">
-        <f>+E22-F22</f>
+      <c r="G24" s="6">
+        <f>+E24-F24</f>
         <v>8298</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H24" s="6">
         <f>+[13]Main!$J$3</f>
         <v>232</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J24" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>8.51</v>
       </c>
-      <c r="E23" s="6">
-        <f>+D23*H23</f>
+      <c r="E25" s="6">
+        <f>+D25*H25</f>
         <v>2412.9838722099998</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F25" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G23" s="6">
-        <f>+E23-F23</f>
+      <c r="G25" s="6">
+        <f>+E25-F25</f>
         <v>2195.9838722099998</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H25" s="6">
         <f>+[14]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J25" s="5">
         <v>45534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D28" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="3">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B26" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
-    <hyperlink ref="B23" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
-    <hyperlink ref="B25" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B27" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BFBFE-DFFF-438A-ACA9-BA72607C1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ABE79E-925C-4482-85AF-3D36A7A88DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="58970" yWindow="4500" windowWidth="17550" windowHeight="15370" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>HP Enterprise</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>6701 JP</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1812,20 +1818,20 @@
       <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>135</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>137</v>
       </c>
@@ -2635,17 +2641,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>108</v>
       </c>
@@ -2681,18 +2687,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2742,7 +2748,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2866,122 +2872,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2989,132 +2995,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3134,20 +3140,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3251,8 +3257,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -3272,35 +3278,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -3631,161 +3637,172 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>39</v>
       </c>
-      <c r="E24" s="6">
-        <f>+D24*H24</f>
+      <c r="E25" s="6">
+        <f>+D25*H25</f>
         <v>9048</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>750</v>
       </c>
-      <c r="G24" s="6">
-        <f>+E24-F24</f>
+      <c r="G25" s="6">
+        <f>+E25-F25</f>
         <v>8298</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <f>+[13]Main!$J$3</f>
         <v>232</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>8.51</v>
       </c>
-      <c r="E25" s="6">
-        <f>+D25*H25</f>
+      <c r="E26" s="6">
+        <f>+D26*H26</f>
         <v>2412.9838722099998</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G25" s="6">
-        <f>+E25-F25</f>
+      <c r="G26" s="6">
+        <f>+E26-F26</f>
         <v>2195.9838722099998</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f>+[14]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
+    <row r="34" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
-    <hyperlink ref="B27" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B26" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B28" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3800,12 +3817,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>1451.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>7</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ABE79E-925C-4482-85AF-3D36A7A88DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8761A-474F-4F33-9554-8F6A18485B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58970" yWindow="4500" windowWidth="17550" windowHeight="15370" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -781,6 +781,30 @@
   </si>
   <si>
     <t>6701 JP</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>000063 CH</t>
+  </si>
+  <si>
+    <t>NetApp</t>
+  </si>
+  <si>
+    <t>NTAP</t>
+  </si>
+  <si>
+    <t>Western Digital</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
+    <t>BOE Technology</t>
+  </si>
+  <si>
+    <t>200725 CH</t>
   </si>
 </sst>
 </file>
@@ -912,17 +936,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>24774</v>
+            <v>24706</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>38487</v>
+            <v>43210</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>8462</v>
+            <v>8463</v>
           </cell>
         </row>
       </sheetData>
@@ -1818,20 +1842,20 @@
       <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1878,19 +1902,19 @@
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3245394</v>
+        <v>3236486</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>30025</v>
+        <v>34747</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3215369</v>
+        <v>3201739</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
-        <v>24774</v>
+        <v>24706</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>193</v>
@@ -1902,7 +1926,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1998,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2012,7 +2036,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2083,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2098,7 +2122,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2194,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2217,7 +2241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2310,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2355,7 +2379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2366,7 +2390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2377,7 +2401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2445,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2443,7 +2467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2476,7 +2500,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2487,7 +2511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2509,7 +2533,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2544,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2531,7 +2555,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -2553,7 +2577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2575,7 +2599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>135</v>
       </c>
@@ -2608,7 +2632,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>137</v>
       </c>
@@ -2641,17 +2665,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>108</v>
       </c>
@@ -2687,18 +2711,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2748,7 +2772,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2781,7 +2805,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2814,7 +2838,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2828,7 +2852,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2872,122 +2896,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -2995,132 +3019,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3138,22 +3162,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3202,7 +3226,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3213,7 +3237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3224,7 +3248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3235,7 +3259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3257,7 +3281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3266,6 +3290,17 @@
       </c>
       <c r="C9" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3278,35 +3313,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3411,7 +3446,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3447,7 +3482,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3472,7 +3507,7 @@
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3483,7 +3518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3494,7 +3529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3505,7 +3540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3516,7 +3551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3527,7 +3562,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3538,7 +3573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +3584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -3560,7 +3595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3571,7 +3606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3582,7 +3617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3593,7 +3628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3615,7 +3650,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -3626,7 +3661,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -3637,7 +3672,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -3648,161 +3683,194 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D28" s="4">
         <v>39</v>
       </c>
-      <c r="E25" s="6">
-        <f>+D25*H25</f>
+      <c r="E28" s="6">
+        <f>+D28*H28</f>
         <v>9048</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F28" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>750</v>
       </c>
-      <c r="G25" s="6">
-        <f>+E25-F25</f>
+      <c r="G28" s="6">
+        <f>+E28-F28</f>
         <v>8298</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H28" s="6">
         <f>+[13]Main!$J$3</f>
         <v>232</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J28" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D29" s="3">
         <v>8.51</v>
       </c>
-      <c r="E26" s="6">
-        <f>+D26*H26</f>
+      <c r="E29" s="6">
+        <f>+D29*H29</f>
         <v>2412.9838722099998</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F29" s="6">
         <f>+[14]Main!$L$5-[14]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G26" s="6">
-        <f>+E26-F26</f>
+      <c r="G29" s="6">
+        <f>+E29-F29</f>
         <v>2195.9838722099998</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H29" s="6">
         <f>+[14]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J29" s="5">
         <v>45534</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D32" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E38" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E39" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B25" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B32" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
-    <hyperlink ref="B27" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3817,12 +3885,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -3830,7 +3898,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -3838,7 +3906,7 @@
         <v>1451.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>7</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB8761A-474F-4F33-9554-8F6A18485B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C74C1-4029-454E-99C1-B194D3CCB3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-27450" yWindow="1260" windowWidth="27150" windowHeight="18210" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -805,6 +805,12 @@
   </si>
   <si>
     <t>200725 CH</t>
+  </si>
+  <si>
+    <t>ASE Technology</t>
+  </si>
+  <si>
+    <t>3711 TT</t>
   </si>
 </sst>
 </file>
@@ -1833,13 +1839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2556,127 +2562,138 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
         <v>111</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>112</v>
       </c>
-      <c r="E42" s="6">
-        <f>+D42*H42</f>
+      <c r="E43" s="6">
+        <f>+D43*H43</f>
         <v>15167.281808</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G42" s="6">
-        <f>+E42-F42</f>
+      <c r="G43" s="6">
+        <f>+E43-F43</f>
         <v>14720.309808</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H43" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J43" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="4">
         <v>13</v>
       </c>
-      <c r="E43" s="6">
-        <f>+D43*H43</f>
+      <c r="E44" s="6">
+        <f>+D44*H44</f>
         <v>10543.625651</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G43" s="6">
-        <f>+E43-F43</f>
+      <c r="G44" s="6">
+        <f>+E44-F44</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>45561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2691,8 +2708,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B42" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B43" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B43" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B44" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>
@@ -3315,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C74C1-4029-454E-99C1-B194D3CCB3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8AAAA5-2360-408B-ABC6-45607172A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27450" yWindow="1260" windowWidth="27150" windowHeight="18210" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-24060" yWindow="4860" windowWidth="24105" windowHeight="15510" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="244">
   <si>
     <t>Name</t>
   </si>
@@ -811,6 +811,12 @@
   </si>
   <si>
     <t>3711 TT</t>
+  </si>
+  <si>
+    <t>Will Semiconductor</t>
+  </si>
+  <si>
+    <t>603501 CH</t>
   </si>
 </sst>
 </file>
@@ -1839,13 +1845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2573,127 +2579,138 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="4">
         <v>112</v>
       </c>
-      <c r="E43" s="6">
-        <f>+D43*H43</f>
+      <c r="E44" s="6">
+        <f>+D44*H44</f>
         <v>15167.281808</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G43" s="6">
-        <f>+E43-F43</f>
+      <c r="G44" s="6">
+        <f>+E44-F44</f>
         <v>14720.309808</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <v>13</v>
       </c>
-      <c r="E44" s="6">
-        <f>+D44*H44</f>
+      <c r="E45" s="6">
+        <f>+D45*H45</f>
         <v>10543.625651</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G44" s="6">
-        <f>+E44-F44</f>
+      <c r="G45" s="6">
+        <f>+E45-F45</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>45561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2708,8 +2725,8 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B43" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B44" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B44" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B45" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
   </hyperlinks>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8AAAA5-2360-408B-ABC6-45607172A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C07BE-DB00-49BB-8FA9-AAD6015C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="4860" windowWidth="24105" windowHeight="15510" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="110" yWindow="1960" windowWidth="19750" windowHeight="16700" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="CNY">FX!$B$4</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -817,6 +818,15 @@
   </si>
   <si>
     <t>603501 CH</t>
+  </si>
+  <si>
+    <t>ACM Research</t>
+  </si>
+  <si>
+    <t>ACMR</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -1261,6 +1271,40 @@
         <row r="6">
           <cell r="K6">
             <v>19330.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>63.864503999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>522.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>227.42599999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1848,26 +1892,26 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1938,7 +1982,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +2018,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +2054,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +2092,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2095,7 +2139,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2134,7 +2178,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2214,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2206,7 +2250,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2286,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2253,7 +2297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2264,7 +2308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2275,7 +2319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2322,7 +2366,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2358,7 +2402,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2369,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2391,7 +2435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2402,7 +2446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2413,7 +2457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2424,7 +2468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2435,7 +2479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2490,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2501,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2468,7 +2512,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2556,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2523,7 +2567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2534,7 +2578,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2600,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2611,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +2622,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -2589,7 +2633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>46</v>
       </c>
@@ -2633,7 +2677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
@@ -2666,7 +2710,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
@@ -2699,17 +2743,50 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="4">
+        <v>23.19</v>
+      </c>
+      <c r="E46" s="6">
+        <f>+D46*H46</f>
+        <v>1481.01784776</v>
+      </c>
+      <c r="F46" s="6">
+        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
+        <v>295.214</v>
+      </c>
+      <c r="G46" s="6">
+        <f>+E46-F46</f>
+        <v>1185.8038477600001</v>
+      </c>
+      <c r="H46" s="6">
+        <f>+[18]Main!$J$3</f>
+        <v>63.864503999999997</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="10">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -2729,6 +2806,7 @@
     <hyperlink ref="B45" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
+    <hyperlink ref="B46" r:id="rId14" xr:uid="{3A48277A-E40F-4BB9-B4C3-9290548C0B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2745,18 +2823,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2806,7 +2884,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2839,7 +2917,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2872,7 +2950,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2886,7 +2964,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2919,7 +2997,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -2930,122 +3008,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -3053,132 +3131,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3205,13 +3283,13 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="11"/>
+    <col min="4" max="5" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3260,7 +3338,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3271,7 +3349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3282,7 +3360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3304,7 +3382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3326,7 +3404,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3356,26 +3434,26 @@
       <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3480,7 +3558,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3516,7 +3594,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3541,7 +3619,7 @@
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3552,7 +3630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3574,7 +3652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3585,7 +3663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3685,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3618,7 +3696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -3629,7 +3707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3640,7 +3718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3651,7 +3729,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3662,7 +3740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3673,7 +3751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3684,7 +3762,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -3695,7 +3773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -3706,7 +3784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -3717,7 +3795,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3728,7 +3806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -3750,7 +3828,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -3761,7 +3839,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3772,12 +3850,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
@@ -3810,7 +3888,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>123</v>
       </c>
@@ -3843,7 +3921,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
@@ -3851,7 +3929,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>128</v>
       </c>
@@ -3859,7 +3937,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
@@ -3870,12 +3948,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>65</v>
       </c>
@@ -3883,7 +3961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>64</v>
       </c>
@@ -3891,7 +3969,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -3919,12 +3997,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -3932,7 +4010,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -3940,7 +4018,7 @@
         <v>1451.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>7</v>
       </c>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C07BE-DB00-49BB-8FA9-AAD6015C8786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE07CB-452D-4CA2-9CC5-16450596606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="1960" windowWidth="19750" windowHeight="16700" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="-27555" yWindow="2715" windowWidth="26370" windowHeight="15795" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -1091,6 +1091,40 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>63.864503999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>522.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>227.42599999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
@@ -1118,7 +1152,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1160,7 +1194,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1194,7 +1228,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1241,40 +1275,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>6758.9192499999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>112651.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>19330.2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1293,18 +1293,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>63.864503999999997</v>
+          <cell r="K3">
+            <v>6758.9192499999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>522.64</v>
+          <cell r="K5">
+            <v>112651.8</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>227.42599999999999</v>
+          <cell r="K6">
+            <v>19330.2</v>
           </cell>
         </row>
       </sheetData>
@@ -1892,10 +1892,10 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1954,11 +1954,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>131</v>
+        <v>135.75</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>3236486</v>
+        <v>3353839.5</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>3201739</v>
+        <v>3319092.5</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
         <v>24706</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J3" s="10">
-        <v>45714</v>
+        <v>45805</v>
       </c>
       <c r="K3">
         <v>1993</v>
@@ -1993,11 +1993,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="E4" s="6">
         <f>+D4*H4</f>
-        <v>719268.71678200003</v>
+        <v>1097585.3795050001</v>
       </c>
       <c r="F4" s="6">
         <f>+[2]Main!$J$5-[2]Main!$J$6</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>780872.71678200003</v>
+        <v>1159189.3795050001</v>
       </c>
       <c r="H4" s="6">
         <f>+[2]Main!$J$3</f>
@@ -2758,7 +2758,7 @@
         <v>1481.01784776</v>
       </c>
       <c r="F46" s="6">
-        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>295.214</v>
       </c>
       <c r="G46" s="6">
@@ -2766,7 +2766,7 @@
         <v>1185.8038477600001</v>
       </c>
       <c r="H46" s="6">
-        <f>+[18]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>63.864503999999997</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -2899,7 +2899,7 @@
         <v>11832</v>
       </c>
       <c r="F4" s="13">
-        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>750</v>
       </c>
       <c r="G4" s="13">
@@ -2907,7 +2907,7 @@
         <v>11082</v>
       </c>
       <c r="H4" s="13">
-        <f>+[13]Main!$J$3</f>
+        <f>+[14]Main!$J$3</f>
         <v>232</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2932,7 +2932,7 @@
         <v>2254.1976244500001</v>
       </c>
       <c r="F5" s="13">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>217</v>
       </c>
       <c r="G5" s="13">
@@ -2940,7 +2940,7 @@
         <v>2037.1976244500001</v>
       </c>
       <c r="H5" s="13">
-        <f>+[14]Main!$L$3</f>
+        <f>+[15]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2979,7 +2979,7 @@
         <v>1677.0956470500003</v>
       </c>
       <c r="F7" s="13">
-        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
+        <f>+[16]Main!$L$5-[16]Main!$L$6</f>
         <v>153.18700000000001</v>
       </c>
       <c r="G7" s="13">
@@ -2987,7 +2987,7 @@
         <v>1523.9086470500001</v>
       </c>
       <c r="H7" s="13">
-        <f>+[15]Main!$L$3</f>
+        <f>+[16]Main!$L$3</f>
         <v>260.01482900000002</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3518,7 +3518,7 @@
         <v>3113682.01</v>
       </c>
       <c r="F3" s="6">
-        <f>+[16]Main!$O$5-[16]Main!$O$6</f>
+        <f>+[17]Main!$O$5-[17]Main!$O$6</f>
         <v>44569</v>
       </c>
       <c r="G3" s="6">
@@ -3526,7 +3526,7 @@
         <v>3069113.01</v>
       </c>
       <c r="H3" s="6">
-        <f>+[16]Main!$O$3</f>
+        <f>+[17]Main!$O$3</f>
         <v>15151</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3536,7 +3536,7 @@
         <v>45750</v>
       </c>
       <c r="K3" s="2">
-        <f>[16]Model!$CE$39</f>
+        <f>[17]Model!$CE$39</f>
         <v>158.43568788298469</v>
       </c>
       <c r="L3" s="7">
@@ -3544,11 +3544,11 @@
         <v>-0.22906093191093035</v>
       </c>
       <c r="M3" s="8">
-        <f>+[16]Model!$CE$36</f>
+        <f>+[17]Model!$CE$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[16]Model!$CE$37</f>
+        <f>+[17]Model!$CE$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
@@ -3576,7 +3576,7 @@
         <v>268168.58880661271</v>
       </c>
       <c r="F4" s="6">
-        <f>([17]Main!$K$5-[17]Main!$K$6)/KRW</f>
+        <f>([18]Main!$K$5-[18]Main!$K$6)/KRW</f>
         <v>64.28214224212158</v>
       </c>
       <c r="G4" s="6">
@@ -3584,7 +3584,7 @@
         <v>268104.30666437058</v>
       </c>
       <c r="H4" s="6">
-        <f>+[17]Main!$K$3</f>
+        <f>+[18]Main!$K$3</f>
         <v>6758.9192499999999</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3870,7 +3870,7 @@
         <v>9048</v>
       </c>
       <c r="F28" s="6">
-        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>750</v>
       </c>
       <c r="G28" s="6">
@@ -3878,7 +3878,7 @@
         <v>8298</v>
       </c>
       <c r="H28" s="6">
-        <f>+[13]Main!$J$3</f>
+        <f>+[14]Main!$J$3</f>
         <v>232</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3903,7 +3903,7 @@
         <v>2412.9838722099998</v>
       </c>
       <c r="F29" s="6">
-        <f>+[14]Main!$L$5-[14]Main!$L$6</f>
+        <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>217</v>
       </c>
       <c r="G29" s="6">
@@ -3911,7 +3911,7 @@
         <v>2195.9838722099998</v>
       </c>
       <c r="H29" s="6">
-        <f>+[14]Main!$L$3</f>
+        <f>+[15]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
       <c r="I29" s="3" t="s">

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE07CB-452D-4CA2-9CC5-16450596606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D148B362-2075-4789-B114-FECA47FE16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27555" yWindow="2715" windowWidth="26370" windowHeight="15795" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="249">
   <si>
     <t>Name</t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>6762 JP</t>
   </si>
 </sst>
 </file>
@@ -1131,12 +1137,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>232</v>
+            <v>247.783086</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>750</v>
+            <v>588.28600000000006</v>
           </cell>
         </row>
         <row r="6">
@@ -1203,26 +1209,28 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="QUBO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>260.01482900000002</v>
+            <v>286</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>199.27</v>
+            <v>304.32100000000003</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>46.082999999999998</v>
+            <v>30.367000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1328,17 +1336,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>4670.5760829999999</v>
+            <v>4836</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>11864</v>
+            <v>9307</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>73468</v>
+            <v>66579</v>
           </cell>
         </row>
       </sheetData>
@@ -1891,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1997,19 +2005,19 @@
       </c>
       <c r="E4" s="6">
         <f>+D4*H4</f>
-        <v>1097585.3795050001</v>
+        <v>1136460</v>
       </c>
       <c r="F4" s="6">
         <f>+[2]Main!$J$5-[2]Main!$J$6</f>
-        <v>-61604</v>
+        <v>-57272</v>
       </c>
       <c r="G4" s="6">
         <f>+E4-F4</f>
-        <v>1159189.3795050001</v>
+        <v>1193732</v>
       </c>
       <c r="H4" s="6">
         <f>+[2]Main!$J$3</f>
-        <v>4670.5760829999999</v>
+        <v>4836</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>121</v>
@@ -2896,19 +2904,19 @@
       </c>
       <c r="E4" s="13">
         <f>+D4*H4</f>
-        <v>11832</v>
+        <v>12636.937386</v>
       </c>
       <c r="F4" s="13">
         <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>750</v>
+        <v>588.28600000000006</v>
       </c>
       <c r="G4" s="13">
         <f>+E4-F4</f>
-        <v>11082</v>
+        <v>12048.651386</v>
       </c>
       <c r="H4" s="13">
         <f>+[14]Main!$J$3</f>
-        <v>232</v>
+        <v>247.783086</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>193</v>
@@ -2976,19 +2984,19 @@
       </c>
       <c r="E7" s="13">
         <f>+D7*H7</f>
-        <v>1677.0956470500003</v>
+        <v>1844.7</v>
       </c>
       <c r="F7" s="13">
         <f>+[16]Main!$L$5-[16]Main!$L$6</f>
-        <v>153.18700000000001</v>
+        <v>273.95400000000001</v>
       </c>
       <c r="G7" s="13">
         <f>+E7-F7</f>
-        <v>1523.9086470500001</v>
+        <v>1570.7460000000001</v>
       </c>
       <c r="H7" s="13">
         <f>+[16]Main!$L$3</f>
-        <v>260.01482900000002</v>
+        <v>286</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>193</v>
@@ -3425,13 +3433,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3840,149 +3848,160 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="4">
-        <v>39</v>
-      </c>
-      <c r="E28" s="6">
-        <f>+D28*H28</f>
-        <v>9048</v>
-      </c>
-      <c r="F28" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>750</v>
-      </c>
-      <c r="G28" s="6">
-        <f>+E28-F28</f>
-        <v>8298</v>
-      </c>
-      <c r="H28" s="6">
-        <f>+[14]Main!$J$3</f>
-        <v>232</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="5">
-        <v>45534</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="3">
-        <v>8.51</v>
+        <v>124</v>
+      </c>
+      <c r="D29" s="4">
+        <v>39</v>
       </c>
       <c r="E29" s="6">
         <f>+D29*H29</f>
+        <v>9663.5403540000007</v>
+      </c>
+      <c r="F29" s="6">
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <v>588.28600000000006</v>
+      </c>
+      <c r="G29" s="6">
+        <f>+E29-F29</f>
+        <v>9075.2543540000006</v>
+      </c>
+      <c r="H29" s="6">
+        <f>+[14]Main!$J$3</f>
+        <v>247.783086</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="E30" s="6">
+        <f>+D30*H30</f>
         <v>2412.9838722099998</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <f>+[15]Main!$L$5-[15]Main!$L$6</f>
         <v>217</v>
       </c>
-      <c r="G29" s="6">
-        <f>+E29-F29</f>
+      <c r="G30" s="6">
+        <f>+E30-F30</f>
         <v>2195.9838722099998</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f>+[15]Main!$L$3</f>
         <v>283.54687100000001</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>45534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>101.64</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
+    <row r="38" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="3">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CD056E5E-713C-45E7-82FC-EFD06739D880}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
-    <hyperlink ref="B32" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{E138C484-1EF3-497D-8DD8-4398C67AAB14}"/>
+    <hyperlink ref="B33" r:id="rId3" xr:uid="{17EE0F28-0CA3-4454-8659-59421816F562}"/>
     <hyperlink ref="A1" location="Semiconductors!A1" display="Semis" xr:uid="{3EBFEA52-93DD-4F50-8A15-3931D4DD8A3B}"/>
-    <hyperlink ref="B29" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{B849A3EA-637F-401B-9004-B19AC4384C38}"/>
+    <hyperlink ref="B31" r:id="rId5" xr:uid="{B3FD8109-CF06-4F67-80CA-74CB8FA3899F}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{41CB0E3A-9A33-4B05-90FA-F5D94D41DCCA}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{080EF83F-F30F-4A70-B656-61CF4AB15DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D148B362-2075-4789-B114-FECA47FE16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F23287-962D-4E31-B194-CCAF945DC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56470" yWindow="4650" windowWidth="18350" windowHeight="15420" activeTab="3" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="34470" yWindow="2510" windowWidth="25360" windowHeight="11610" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t>6762 JP</t>
+  </si>
+  <si>
+    <t>Astera</t>
+  </si>
+  <si>
+    <t>ALAB</t>
   </si>
 </sst>
 </file>
@@ -1897,29 +1903,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E42-3F4A-4F5B-8F7C-4C05A85AC67E}">
-  <dimension ref="A2:K50"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="3"/>
-    <col min="10" max="10" width="11.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>45722</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>45652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2674,128 +2680,139 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <v>112</v>
       </c>
-      <c r="E44" s="6">
-        <f>+D44*H44</f>
+      <c r="E45" s="6">
+        <f>+D45*H45</f>
         <v>15167.281808</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f>+[11]Main!$J$5-[11]Main!$J$6</f>
         <v>446.97199999999998</v>
       </c>
-      <c r="G44" s="6">
-        <f>+E44-F44</f>
+      <c r="G45" s="6">
+        <f>+E45-F45</f>
         <v>14720.309808</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="6">
         <f>+[11]Main!$J$3</f>
         <v>135.42215899999999</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="4">
         <v>13</v>
       </c>
-      <c r="E45" s="6">
-        <f>+D45*H45</f>
+      <c r="E46" s="6">
+        <f>+D46*H46</f>
         <v>10543.625651</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>1203</v>
       </c>
-      <c r="G45" s="6">
-        <f>+E45-F45</f>
+      <c r="G46" s="6">
+        <f>+E46-F46</f>
         <v>9340.6256510000003</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <f>+[12]Main!$K$3</f>
         <v>811.04812700000002</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J46" s="10">
         <v>45561</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D47" s="4">
         <v>23.19</v>
       </c>
-      <c r="E46" s="6">
-        <f>+D46*H46</f>
+      <c r="E47" s="6">
+        <f>+D47*H47</f>
         <v>1481.01784776</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>295.214</v>
       </c>
-      <c r="G46" s="6">
-        <f>+E46-F46</f>
+      <c r="G47" s="6">
+        <f>+E47-F47</f>
         <v>1185.8038477600001</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <f>+[13]Main!$J$3</f>
         <v>63.864503999999997</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
         <v>45796</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2810,11 +2827,11 @@
     <hyperlink ref="B4" r:id="rId7" xr:uid="{05815C98-BE17-4CF3-942D-C5BFAB80DA80}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{37FE970B-81E9-4AF7-98E1-474982CC16D7}"/>
     <hyperlink ref="B18" r:id="rId9" xr:uid="{CF0C3BE9-553F-4E6A-8F72-3B6D86F868FC}"/>
-    <hyperlink ref="B44" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
-    <hyperlink ref="B45" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
+    <hyperlink ref="B45" r:id="rId10" xr:uid="{35D78F35-BD1B-401F-9830-193EF147D21A}"/>
+    <hyperlink ref="B46" r:id="rId11" xr:uid="{8FC74BE2-2095-4EFE-8F49-C1E00A6EF2C6}"/>
     <hyperlink ref="B10" r:id="rId12" xr:uid="{E7CBB7C3-B2DF-42D5-A84A-8A1B7E26DDB6}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{3EEE25FB-8581-4AA9-ADEF-37DC0B2F3F4D}"/>
-    <hyperlink ref="B46" r:id="rId14" xr:uid="{3A48277A-E40F-4BB9-B4C3-9290548C0B09}"/>
+    <hyperlink ref="B47" r:id="rId14" xr:uid="{3A48277A-E40F-4BB9-B4C3-9290548C0B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2831,18 +2848,18 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -2892,7 +2909,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
@@ -2925,7 +2942,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2958,7 +2975,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2972,7 +2989,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -3005,7 +3022,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -3016,122 +3033,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -3139,132 +3156,132 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>192</v>
       </c>
@@ -3291,13 +3308,13 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="11"/>
+    <col min="4" max="5" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3346,7 +3363,7 @@
         <v>199280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3368,7 +3385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3412,7 +3429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3435,33 +3452,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="3"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="9.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -3602,7 +3619,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3627,7 +3644,7 @@
         <v>7630</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -3638,7 +3655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3649,7 +3666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3671,7 +3688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3682,7 +3699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3693,7 +3710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3704,7 +3721,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>46</v>
       </c>
@@ -3715,7 +3732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3726,7 +3743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3759,7 +3776,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3770,7 +3787,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -3781,7 +3798,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3814,7 +3831,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -3825,7 +3842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -3836,7 +3853,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3869,12 +3886,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>123</v>
       </c>
@@ -3940,7 +3957,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3948,7 +3965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
@@ -3956,7 +3973,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
@@ -3967,12 +3984,12 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>64</v>
       </c>
@@ -3988,7 +4005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -4016,12 +4033,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -4029,7 +4046,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -4037,7 +4054,7 @@
         <v>1451.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>7</v>
       </c>
